--- a/flowable uiバージョンアップ.xlsx
+++ b/flowable uiバージョンアップ.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="143">
   <si>
     <t>•UI(version:6.8.1)+API(version:6.8.1)の構成の理解</t>
   </si>
@@ -56,73 +56,412 @@
     <t>flowable6.8.1時のバージョン</t>
   </si>
   <si>
-    <t>flowable7.1.0時の状況</t>
+    <t>flowable7.0.0時の状況</t>
   </si>
   <si>
     <t>対応操作</t>
   </si>
   <si>
-    <t>mybatis-spring</t>
+    <t>xercesImpl</t>
+  </si>
+  <si>
+    <t>2.12.2</t>
+  </si>
+  <si>
+    <t>削除される</t>
+  </si>
+  <si>
+    <t>元のバージョンに戻す</t>
+  </si>
+  <si>
+    <t>flowable-json-converter</t>
+  </si>
+  <si>
+    <t>6.8.1</t>
+  </si>
+  <si>
+    <t>flowable-cmmn-json-converter</t>
+  </si>
+  <si>
+    <t>flowable-dmn-json-converter</t>
+  </si>
+  <si>
+    <t>flowable-form-json-converter</t>
+  </si>
+  <si>
+    <t>guava</t>
+  </si>
+  <si>
+    <t>31.0.1-jre</t>
+  </si>
+  <si>
+    <t>flowable-content-engine</t>
+  </si>
+  <si>
+    <t>flowable-form-spring-configurator</t>
+  </si>
+  <si>
+    <t>flowable-form-engine</t>
+  </si>
+  <si>
+    <t>flowable-form-rest</t>
+  </si>
+  <si>
+    <t>flowable-content-spring-configurator</t>
+  </si>
+  <si>
+    <t>flowable-content-rest</t>
+  </si>
+  <si>
+    <t>liquibase-core</t>
+  </si>
+  <si>
+    <t>4.9.0</t>
+  </si>
+  <si>
+    <t>コンフリクトが多い</t>
+  </si>
+  <si>
+    <t>一時無効化</t>
+  </si>
+  <si>
+    <t>javax.servlet-api</t>
+  </si>
+  <si>
+    <t>3.1.0</t>
+  </si>
+  <si>
+    <t>jakarta.servlet-api 
+にアップグレードした</t>
+  </si>
+  <si>
+    <t>6.8.1 と 7.0.0 の REST API を同時に利用する必要があるため、
+両方のJARファイルを併用している</t>
+  </si>
+  <si>
+    <t>単一化が必要</t>
+  </si>
+  <si>
+    <t>更新に成功したJARファイル</t>
+  </si>
+  <si>
+    <t>flowable7.0.0時のバージョン</t>
+  </si>
+  <si>
+    <t>spring-boot-actuator-autoconfigure</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 2.7.18</t>
+  </si>
+  <si>
+    <t>3.1.3</t>
+  </si>
+  <si>
+    <t>spring-boot-configuration-processor</t>
+  </si>
+  <si>
+    <t>spring-boot-starter-amqp</t>
+  </si>
+  <si>
+    <t>spring-boot-starter-activemq</t>
+  </si>
+  <si>
+    <t>spring-boot-starter-oauth2-client</t>
+  </si>
+  <si>
+    <t>spring-boot-starter-
+oauth2-resource-server</t>
+  </si>
+  <si>
+    <t>spring-boot-starter-tomcat</t>
+  </si>
+  <si>
+    <t>spring-boot-devtools</t>
+  </si>
+  <si>
+    <t>spring-boot-starter-actuator</t>
+  </si>
+  <si>
+    <t>spring-boot-properties-migrator</t>
+  </si>
+  <si>
+    <t>spring-boot-starter-test</t>
+  </si>
+  <si>
+    <t>spring-boot-starter</t>
+  </si>
+  <si>
+    <t>groovy-jsr223</t>
+  </si>
+  <si>
+    <t>4.0.3</t>
+  </si>
+  <si>
+    <t>4.0.14</t>
+  </si>
+  <si>
+    <t>jcl-over-slf4j</t>
+  </si>
+  <si>
+    <t>1.7.36</t>
   </si>
   <si>
     <t>2.0.7</t>
   </si>
   <si>
-    <t>削除される</t>
-  </si>
-  <si>
-    <t>元のバージョンに戻す</t>
-  </si>
-  <si>
-    <t>xercesImpl</t>
-  </si>
-  <si>
-    <t>2.12.2</t>
-  </si>
-  <si>
-    <t>javax.servlet-api</t>
-  </si>
-  <si>
-    <t>3.1.0</t>
-  </si>
-  <si>
-    <t>flowable-json-converter</t>
-  </si>
-  <si>
-    <t>6.8.1</t>
-  </si>
-  <si>
-    <t>flowable-cmmn-json-converter</t>
-  </si>
-  <si>
-    <t>flowable-dmn-json-converter</t>
-  </si>
-  <si>
-    <t>flowable-form-json-converter</t>
-  </si>
-  <si>
-    <t>guava</t>
-  </si>
-  <si>
-    <t>31.0.1-jre</t>
-  </si>
-  <si>
-    <t>flowable-content-engine</t>
-  </si>
-  <si>
-    <t>flowable-form-spring-configurator</t>
-  </si>
-  <si>
-    <t>flowable-form-engine</t>
-  </si>
-  <si>
-    <t>flowable-form-rest</t>
-  </si>
-  <si>
-    <t>flowable-content-spring-configurator</t>
-  </si>
-  <si>
-    <t>flowable-content-rest</t>
+    <t>HikariCP</t>
+  </si>
+  <si>
+    <t>5.0.1</t>
+  </si>
+  <si>
+    <t>unboundid-ldapsdk</t>
+  </si>
+  <si>
+    <t>6.0.10</t>
+  </si>
+  <si>
+    <t>6.0.9</t>
+  </si>
+  <si>
+    <t>spring-ldap-core</t>
+  </si>
+  <si>
+    <t>2.4.1</t>
+  </si>
+  <si>
+    <t>3.1.1</t>
+  </si>
+  <si>
+    <t>postgresql</t>
+  </si>
+  <si>
+    <t>42.4.1</t>
+  </si>
+  <si>
+    <t>42.5.4</t>
+  </si>
+  <si>
+    <t>h2</t>
+  </si>
+  <si>
+    <t>2.2.220</t>
+  </si>
+  <si>
+    <t>2.1.214</t>
+  </si>
+  <si>
+    <t>spring-kafka</t>
+  </si>
+  <si>
+    <t>2.9.13</t>
+  </si>
+  <si>
+    <t>3.0.10</t>
+  </si>
+  <si>
+    <t>mybatis</t>
+  </si>
+  <si>
+    <t>3.0.0</t>
+  </si>
+  <si>
+    <t>commons-lang3</t>
+  </si>
+  <si>
+    <t>3.13.0</t>
+  </si>
+  <si>
+    <t>3.12.0</t>
+  </si>
+  <si>
+    <t>joda-time</t>
+  </si>
+  <si>
+    <t>2.10.13</t>
+  </si>
+  <si>
+    <t>2.11.1</t>
+  </si>
+  <si>
+    <t>slf4j-api</t>
+  </si>
+  <si>
+    <t>jackson-datatype-joda</t>
+  </si>
+  <si>
+    <t>2.13.5</t>
+  </si>
+  <si>
+    <t>2.15.2</t>
+  </si>
+  <si>
+    <t>spring-beans</t>
+  </si>
+  <si>
+    <t>5.3.33</t>
+  </si>
+  <si>
+    <t>6.0.11</t>
+  </si>
+  <si>
+    <t>spring-context</t>
+  </si>
+  <si>
+    <t>spring-context-support</t>
+  </si>
+  <si>
+    <t>spring-core</t>
+  </si>
+  <si>
+    <t>spring-aop</t>
+  </si>
+  <si>
+    <t>spring-expression</t>
+  </si>
+  <si>
+    <t>spring-jdbc</t>
+  </si>
+  <si>
+    <t>spring-tx</t>
+  </si>
+  <si>
+    <t>spring-web</t>
+  </si>
+  <si>
+    <t>spring-webmvc</t>
+  </si>
+  <si>
+    <t>spring-security-core</t>
+  </si>
+  <si>
+    <t>5.8.10</t>
+  </si>
+  <si>
+    <t>6.1.3</t>
+  </si>
+  <si>
+    <t>spring-security-config</t>
+  </si>
+  <si>
+    <t>spring-security-crypto</t>
+  </si>
+  <si>
+    <t>spring-security-web</t>
+  </si>
+  <si>
+    <t>spring-security-ldap</t>
+  </si>
+  <si>
+    <t>jackson-core</t>
+  </si>
+  <si>
+    <t>jackson-databind</t>
+  </si>
+  <si>
+    <t>jackson-annotations</t>
+  </si>
+  <si>
+    <t>flowable-app-engine-rest</t>
+  </si>
+  <si>
+    <t>7.0.0</t>
+  </si>
+  <si>
+    <t>flowable-app-engine-spring</t>
+  </si>
+  <si>
+    <t>flowable-app-engine</t>
+  </si>
+  <si>
+    <t>flowable-rest</t>
+  </si>
+  <si>
+    <t>flowable-spring</t>
+  </si>
+  <si>
+    <t>flowable-engine</t>
+  </si>
+  <si>
+    <t>flowable-app-engine-api</t>
+  </si>
+  <si>
+    <t>flowable-event-registry-json-converter</t>
+  </si>
+  <si>
+    <t>flowable-event-registry-model</t>
+  </si>
+  <si>
+    <t>flowable-bpmn-model</t>
+  </si>
+  <si>
+    <t>flowable-bpmn-converter</t>
+  </si>
+  <si>
+    <t>flowable-bpmn-layout</t>
+  </si>
+  <si>
+    <t>flowable-form-model</t>
+  </si>
+  <si>
+    <t>flowable-dmn-model</t>
+  </si>
+  <si>
+    <t>flowable-dmn-xml-converter</t>
+  </si>
+  <si>
+    <t>flowable-image-generator</t>
+  </si>
+  <si>
+    <t>flowable-cmmn-model</t>
+  </si>
+  <si>
+    <t>flowable-cmmn-converter</t>
+  </si>
+  <si>
+    <t>flowable-process-validation</t>
+  </si>
+  <si>
+    <t>flowable-cmmn-image-generator</t>
+  </si>
+  <si>
+    <t>flowable-dmn-image-generator</t>
+  </si>
+  <si>
+    <t>flowable-idm-api</t>
+  </si>
+  <si>
+    <t>flowable-ldap</t>
+  </si>
+  <si>
+    <t>flowable-dmn-spring-configurator</t>
+  </si>
+  <si>
+    <t>flowable-dmn-engine</t>
+  </si>
+  <si>
+    <t>flowable-dmn-rest</t>
+  </si>
+  <si>
+    <t>flowable-cmmn-spring-configurator</t>
+  </si>
+  <si>
+    <t>flowable-cmmn-engine</t>
+  </si>
+  <si>
+    <t>flowable-cmmn-rest</t>
+  </si>
+  <si>
+    <t>flowable-event-registry-rest</t>
+  </si>
+  <si>
+    <t>flowable-idm-spring-configurator</t>
+  </si>
+  <si>
+    <t>flowable-form-api</t>
+  </si>
+  <si>
+    <t>flowable-content-api</t>
   </si>
 </sst>
 </file>
@@ -135,7 +474,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="26">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -145,8 +484,47 @@
     </font>
     <font>
       <b/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="9"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="7"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color rgb="FF92D050"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -296,12 +674,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="33">
+  <fills count="34">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
@@ -490,7 +874,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="19">
     <border>
       <left/>
       <right/>
@@ -582,6 +966,24 @@
       <right style="thin">
         <color auto="1"/>
       </right>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
         <color auto="1"/>
@@ -706,174 +1108,219 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="10" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="12" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="13" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="4" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="5" borderId="15" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="5" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="16" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -947,8 +1394,8 @@
       <xdr:rowOff>6350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>205105</xdr:colOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>611505</xdr:colOff>
       <xdr:row>15</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
@@ -967,8 +1414,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="520700"/>
-          <a:ext cx="10017125" cy="2051050"/>
+          <a:off x="9525" y="673100"/>
+          <a:ext cx="10025380" cy="2051050"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -981,18 +1428,18 @@
     <xdr:from>
       <xdr:col>0</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>16</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>855345</xdr:colOff>
-      <xdr:row>46</xdr:row>
-      <xdr:rowOff>49530</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>763905</xdr:colOff>
+      <xdr:row>77</xdr:row>
+      <xdr:rowOff>59690</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="图片 2" descr="屏幕截图 2025-05-12 131248"/>
+        <xdr:cNvPr id="11" name="图片 10"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1005,84 +1452,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="9525" y="2749550"/>
-          <a:ext cx="7740015" cy="5186680"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>50</xdr:row>
-      <xdr:rowOff>6350</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>205105</xdr:colOff>
-      <xdr:row>70</xdr:row>
-      <xdr:rowOff>154305</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="图片 3" descr="屏幕截图 2025-05-12 134708"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId3"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="9525" y="8578850"/>
-          <a:ext cx="10017125" cy="3576955"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>76</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>265430</xdr:colOff>
-      <xdr:row>91</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="5" name="图片 4"/>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip r:embed="rId4"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="0" y="13030200"/>
-          <a:ext cx="9401175" cy="2581275"/>
+          <a:off x="9525" y="8553450"/>
+          <a:ext cx="9206230" cy="4860290"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1098,19 +1469,150 @@
   <xdr:twoCellAnchor editAs="oneCell">
     <xdr:from>
       <xdr:col>0</xdr:col>
-      <xdr:colOff>242570</xdr:colOff>
-      <xdr:row>93</xdr:row>
-      <xdr:rowOff>127000</xdr:rowOff>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>170815</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>356870</xdr:colOff>
-      <xdr:row>99</xdr:row>
-      <xdr:rowOff>3175</xdr:rowOff>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>431165</xdr:colOff>
+      <xdr:row>46</xdr:row>
+      <xdr:rowOff>79375</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="6" name="图片 5"/>
+        <xdr:cNvPr id="3" name="图片 2"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9525" y="2723515"/>
+          <a:ext cx="9845040" cy="5394960"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>422275</xdr:colOff>
+      <xdr:row>9</xdr:row>
+      <xdr:rowOff>80010</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>330835</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>116205</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="图片 3"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12007850" y="1775460"/>
+          <a:ext cx="6766560" cy="2950845"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>748665</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>154940</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>211455</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>31115</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="7" name="直接箭头连接符 6"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="9200515" y="3564890"/>
+          <a:ext cx="3282315" cy="2447925"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>662305</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>129540</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>264795</xdr:colOff>
+      <xdr:row>43</xdr:row>
+      <xdr:rowOff>12065</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="图片 7"/>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1123,8 +1625,8 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="242570" y="16071850"/>
-          <a:ext cx="4171950" cy="904875"/>
+          <a:off x="12933680" y="5082540"/>
+          <a:ext cx="7832090" cy="2454275"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1135,6 +1637,389 @@
         </a:ln>
       </xdr:spPr>
     </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>569595</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>592455</xdr:colOff>
+      <xdr:row>37</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="9" name="直接箭头连接符 8"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9021445" y="6572250"/>
+          <a:ext cx="3842385" cy="0"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>516890</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>59055</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>30</xdr:col>
+      <xdr:colOff>535940</xdr:colOff>
+      <xdr:row>68</xdr:row>
+      <xdr:rowOff>30480</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="10" name="图片 9"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId6"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="12788265" y="8612505"/>
+          <a:ext cx="12363450" cy="3228975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>344805</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>31750</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>345440</xdr:colOff>
+      <xdr:row>52</xdr:row>
+      <xdr:rowOff>166370</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="13" name="直接箭头连接符 12"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8796655" y="7213600"/>
+          <a:ext cx="4505960" cy="2020570"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>85</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>100</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="14" name="图片 13"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId7"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="0" y="14878050"/>
+          <a:ext cx="9639300" cy="2571750"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>603250</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>31115</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>446405</xdr:colOff>
+      <xdr:row>97</xdr:row>
+      <xdr:rowOff>132715</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="17" name="直接箭头连接符 16"/>
+        <xdr:cNvCxnSpPr/>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1918335" y="16109315"/>
+          <a:ext cx="3331845" cy="958850"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>91</xdr:row>
+      <xdr:rowOff>3810</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>530225</xdr:colOff>
+      <xdr:row>94</xdr:row>
+      <xdr:rowOff>113030</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp>
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="18" name="文本框 17"/>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5306695" y="15910560"/>
+          <a:ext cx="2179955" cy="623570"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t">
+          <a:noAutofit/>
+        </a:bodyPr>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr lang="zh-CN" altLang="en-US" sz="1100" b="1"/>
+            <a:t>以前のバージョン：</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+            <a:t>6.8.1</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" altLang="zh-CN" sz="1100" b="1"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>199390</xdr:colOff>
+      <xdr:row>103</xdr:row>
+      <xdr:rowOff>106680</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1985010</xdr:colOff>
+      <xdr:row>111</xdr:row>
+      <xdr:rowOff>1270</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="19" name="图片 18"/>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip r:embed="rId8"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="199390" y="18070830"/>
+          <a:ext cx="3786505" cy="1266190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:noFill/>
+        <a:ln w="9525">
+          <a:noFill/>
+        </a:ln>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>267335</xdr:colOff>
+      <xdr:row>92</xdr:row>
+      <xdr:rowOff>143510</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>502920</xdr:colOff>
+      <xdr:row>108</xdr:row>
+      <xdr:rowOff>65405</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp>
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="20" name="直接箭头连接符 19"/>
+        <xdr:cNvCxnSpPr>
+          <a:endCxn id="18" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1582420" y="16221710"/>
+          <a:ext cx="3724275" cy="2665095"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln>
+          <a:tailEnd type="arrow"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:srgbClr val="FFFFFF"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1390,21 +2275,23 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A2:J134"/>
+  <dimension ref="A2:N306"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="A137" sqref="A137"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A80" workbookViewId="0">
+      <selection activeCell="O111" sqref="O111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
   <cols>
-    <col min="4" max="4" width="26.25" customWidth="1"/>
-    <col min="6" max="6" width="19.225" customWidth="1"/>
-    <col min="8" max="8" width="16.725" customWidth="1"/>
-    <col min="9" max="9" width="12.6916666666667" customWidth="1"/>
+    <col min="2" max="2" width="8.25833333333333" customWidth="1"/>
+    <col min="4" max="4" width="27.7833333333333" customWidth="1"/>
+    <col min="6" max="6" width="19.25" customWidth="1"/>
+    <col min="8" max="8" width="19.625" customWidth="1"/>
+    <col min="9" max="9" width="12.75" customWidth="1"/>
+    <col min="10" max="10" width="19.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:1">
+    <row r="2" ht="25.5" spans="1:1">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -1419,451 +2306,2379 @@
         <v>2</v>
       </c>
     </row>
-    <row r="75" spans="1:1">
-      <c r="A75" s="1" t="s">
+    <row r="85" ht="25.5" spans="1:1">
+      <c r="A85" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="93" spans="1:1">
-      <c r="A93" s="2" t="s">
+    <row r="103" spans="1:1">
+      <c r="A103" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="102" spans="1:1">
-      <c r="A102" t="s">
+    <row r="112" ht="18.75" spans="1:3">
+      <c r="A112" s="2"/>
+      <c r="C112" s="3" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="103" spans="3:10">
-      <c r="C103" s="3" t="s">
+    <row r="113" spans="3:10">
+      <c r="C113" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D103" s="3"/>
-      <c r="E103" s="4" t="s">
+      <c r="D113" s="4"/>
+      <c r="E113" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="F103" s="4"/>
-      <c r="G103" s="3" t="s">
+      <c r="F113" s="5"/>
+      <c r="G113" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="H103" s="3"/>
-      <c r="I103" s="3" t="s">
+      <c r="H113" s="4"/>
+      <c r="I113" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="J103" s="3"/>
-    </row>
-    <row r="104" spans="3:10">
-      <c r="C104" s="3"/>
-      <c r="D104" s="3"/>
-      <c r="E104" s="4"/>
-      <c r="F104" s="4"/>
-      <c r="G104" s="3"/>
-      <c r="H104" s="3"/>
-      <c r="I104" s="3"/>
-      <c r="J104" s="3"/>
-    </row>
-    <row r="105" spans="3:10">
-      <c r="C105" s="3" t="s">
+      <c r="J113" s="4"/>
+    </row>
+    <row r="114" spans="3:10">
+      <c r="C114" s="4"/>
+      <c r="D114" s="4"/>
+      <c r="E114" s="5"/>
+      <c r="F114" s="5"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="4"/>
+    </row>
+    <row r="115" spans="3:10">
+      <c r="C115" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="D105" s="3"/>
-      <c r="E105" s="3" t="s">
+      <c r="D115" s="6"/>
+      <c r="E115" s="6" t="s">
         <v>11</v>
       </c>
-      <c r="F105" s="5"/>
-      <c r="G105" s="3" t="s">
+      <c r="F115" s="7"/>
+      <c r="G115" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="H105" s="3"/>
-      <c r="I105" s="7" t="s">
+      <c r="H115" s="9"/>
+      <c r="I115" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="J105" s="8"/>
-    </row>
-    <row r="106" spans="3:10">
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-      <c r="F106" s="5"/>
-      <c r="G106" s="3"/>
-      <c r="H106" s="3"/>
-      <c r="I106" s="9"/>
-      <c r="J106" s="10"/>
-    </row>
-    <row r="107" spans="3:10">
-      <c r="C107" s="3" t="s">
+      <c r="J115" s="11"/>
+    </row>
+    <row r="116" spans="3:10">
+      <c r="C116" s="6"/>
+      <c r="D116" s="6"/>
+      <c r="E116" s="6"/>
+      <c r="F116" s="7"/>
+      <c r="G116" s="10"/>
+      <c r="H116" s="11"/>
+      <c r="I116" s="10"/>
+      <c r="J116" s="11"/>
+    </row>
+    <row r="117" spans="3:10">
+      <c r="C117" s="6" t="s">
         <v>14</v>
       </c>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3" t="s">
+      <c r="D117" s="6"/>
+      <c r="E117" s="6" t="s">
         <v>15</v>
       </c>
-      <c r="F107" s="5"/>
-      <c r="G107" s="3"/>
-      <c r="H107" s="3"/>
-      <c r="I107" s="9"/>
-      <c r="J107" s="10"/>
-    </row>
-    <row r="108" spans="3:10">
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-      <c r="F108" s="5"/>
-      <c r="G108" s="3"/>
-      <c r="H108" s="3"/>
-      <c r="I108" s="9"/>
-      <c r="J108" s="10"/>
-    </row>
-    <row r="109" spans="3:10">
-      <c r="C109" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="D109" s="3"/>
-      <c r="E109" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="F109" s="5"/>
-      <c r="G109" s="3"/>
-      <c r="H109" s="3"/>
-      <c r="I109" s="9"/>
-      <c r="J109" s="10"/>
-    </row>
-    <row r="110" spans="3:10">
-      <c r="C110" s="3"/>
-      <c r="D110" s="3"/>
-      <c r="E110" s="3"/>
-      <c r="F110" s="5"/>
-      <c r="G110" s="3"/>
-      <c r="H110" s="3"/>
-      <c r="I110" s="9"/>
-      <c r="J110" s="10"/>
-    </row>
-    <row r="111" spans="3:10">
-      <c r="C111" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="D111" s="3"/>
-      <c r="E111" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F111" s="5"/>
-      <c r="G111" s="3"/>
-      <c r="H111" s="3"/>
-      <c r="I111" s="9"/>
-      <c r="J111" s="10"/>
-    </row>
-    <row r="112" spans="3:10">
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
-      <c r="F112" s="5"/>
-      <c r="G112" s="3"/>
-      <c r="H112" s="3"/>
-      <c r="I112" s="9"/>
-      <c r="J112" s="10"/>
-    </row>
-    <row r="113" spans="3:10">
-      <c r="C113" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D113" s="3"/>
-      <c r="E113" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F113" s="5"/>
-      <c r="G113" s="3"/>
-      <c r="H113" s="3"/>
-      <c r="I113" s="9"/>
-      <c r="J113" s="10"/>
-    </row>
-    <row r="114" spans="3:10">
-      <c r="C114" s="3"/>
-      <c r="D114" s="3"/>
-      <c r="E114" s="3"/>
-      <c r="F114" s="5"/>
-      <c r="G114" s="3"/>
-      <c r="H114" s="3"/>
-      <c r="I114" s="9"/>
-      <c r="J114" s="10"/>
-    </row>
-    <row r="115" spans="3:10">
-      <c r="C115" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="D115" s="3"/>
-      <c r="E115" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F115" s="5"/>
-      <c r="G115" s="3"/>
-      <c r="H115" s="3"/>
-      <c r="I115" s="9"/>
-      <c r="J115" s="10"/>
-    </row>
-    <row r="116" spans="3:10">
-      <c r="C116" s="3"/>
-      <c r="D116" s="3"/>
-      <c r="E116" s="3"/>
-      <c r="F116" s="5"/>
-      <c r="G116" s="3"/>
-      <c r="H116" s="3"/>
-      <c r="I116" s="9"/>
-      <c r="J116" s="10"/>
-    </row>
-    <row r="117" spans="3:10">
-      <c r="C117" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D117" s="3"/>
-      <c r="E117" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F117" s="5"/>
-      <c r="G117" s="3"/>
-      <c r="H117" s="3"/>
-      <c r="I117" s="9"/>
-      <c r="J117" s="10"/>
+      <c r="F117" s="7"/>
+      <c r="G117" s="10"/>
+      <c r="H117" s="11"/>
+      <c r="I117" s="10"/>
+      <c r="J117" s="11"/>
     </row>
     <row r="118" spans="3:10">
-      <c r="C118" s="3"/>
-      <c r="D118" s="3"/>
-      <c r="E118" s="3"/>
-      <c r="F118" s="5"/>
-      <c r="G118" s="3"/>
-      <c r="H118" s="3"/>
-      <c r="I118" s="9"/>
-      <c r="J118" s="10"/>
+      <c r="C118" s="6"/>
+      <c r="D118" s="6"/>
+      <c r="E118" s="6"/>
+      <c r="F118" s="7"/>
+      <c r="G118" s="10"/>
+      <c r="H118" s="11"/>
+      <c r="I118" s="10"/>
+      <c r="J118" s="11"/>
     </row>
     <row r="119" spans="3:10">
       <c r="C119" s="6" t="s">
-        <v>23</v>
+        <v>16</v>
       </c>
       <c r="D119" s="6"/>
-      <c r="E119" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="F119" s="5"/>
-      <c r="G119" s="3"/>
-      <c r="H119" s="3"/>
-      <c r="I119" s="9"/>
-      <c r="J119" s="10"/>
+      <c r="E119" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F119" s="7"/>
+      <c r="G119" s="10"/>
+      <c r="H119" s="11"/>
+      <c r="I119" s="10"/>
+      <c r="J119" s="11"/>
     </row>
     <row r="120" spans="3:10">
       <c r="C120" s="6"/>
       <c r="D120" s="6"/>
-      <c r="E120" s="3"/>
-      <c r="F120" s="5"/>
-      <c r="G120" s="3"/>
-      <c r="H120" s="3"/>
-      <c r="I120" s="9"/>
-      <c r="J120" s="10"/>
+      <c r="E120" s="6"/>
+      <c r="F120" s="7"/>
+      <c r="G120" s="10"/>
+      <c r="H120" s="11"/>
+      <c r="I120" s="10"/>
+      <c r="J120" s="11"/>
     </row>
     <row r="121" spans="3:10">
-      <c r="C121" s="3" t="s">
+      <c r="C121" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="D121" s="6"/>
+      <c r="E121" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F121" s="7"/>
+      <c r="G121" s="10"/>
+      <c r="H121" s="11"/>
+      <c r="I121" s="10"/>
+      <c r="J121" s="11"/>
+    </row>
+    <row r="122" spans="3:10">
+      <c r="C122" s="6"/>
+      <c r="D122" s="6"/>
+      <c r="E122" s="6"/>
+      <c r="F122" s="7"/>
+      <c r="G122" s="10"/>
+      <c r="H122" s="11"/>
+      <c r="I122" s="10"/>
+      <c r="J122" s="11"/>
+    </row>
+    <row r="123" spans="3:10">
+      <c r="C123" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D123" s="6"/>
+      <c r="E123" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F123" s="7"/>
+      <c r="G123" s="10"/>
+      <c r="H123" s="11"/>
+      <c r="I123" s="10"/>
+      <c r="J123" s="11"/>
+    </row>
+    <row r="124" spans="3:10">
+      <c r="C124" s="6"/>
+      <c r="D124" s="6"/>
+      <c r="E124" s="6"/>
+      <c r="F124" s="7"/>
+      <c r="G124" s="10"/>
+      <c r="H124" s="11"/>
+      <c r="I124" s="10"/>
+      <c r="J124" s="11"/>
+    </row>
+    <row r="125" spans="3:10">
+      <c r="C125" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="D125" s="6"/>
+      <c r="E125" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="F125" s="7"/>
+      <c r="G125" s="10"/>
+      <c r="H125" s="11"/>
+      <c r="I125" s="10"/>
+      <c r="J125" s="11"/>
+    </row>
+    <row r="126" spans="3:10">
+      <c r="C126" s="6"/>
+      <c r="D126" s="6"/>
+      <c r="E126" s="6"/>
+      <c r="F126" s="7"/>
+      <c r="G126" s="10"/>
+      <c r="H126" s="11"/>
+      <c r="I126" s="10"/>
+      <c r="J126" s="11"/>
+    </row>
+    <row r="127" spans="3:10">
+      <c r="C127" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="D127" s="6"/>
+      <c r="E127" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F127" s="7"/>
+      <c r="G127" s="10"/>
+      <c r="H127" s="11"/>
+      <c r="I127" s="10"/>
+      <c r="J127" s="11"/>
+    </row>
+    <row r="128" spans="3:10">
+      <c r="C128" s="6"/>
+      <c r="D128" s="6"/>
+      <c r="E128" s="6"/>
+      <c r="F128" s="7"/>
+      <c r="G128" s="10"/>
+      <c r="H128" s="11"/>
+      <c r="I128" s="10"/>
+      <c r="J128" s="11"/>
+    </row>
+    <row r="129" spans="3:10">
+      <c r="C129" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="D129" s="6"/>
+      <c r="E129" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F129" s="7"/>
+      <c r="G129" s="10"/>
+      <c r="H129" s="11"/>
+      <c r="I129" s="10"/>
+      <c r="J129" s="11"/>
+    </row>
+    <row r="130" spans="3:10">
+      <c r="C130" s="6"/>
+      <c r="D130" s="6"/>
+      <c r="E130" s="6"/>
+      <c r="F130" s="7"/>
+      <c r="G130" s="10"/>
+      <c r="H130" s="11"/>
+      <c r="I130" s="10"/>
+      <c r="J130" s="11"/>
+    </row>
+    <row r="131" spans="3:10">
+      <c r="C131" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D131" s="6"/>
+      <c r="E131" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F131" s="7"/>
+      <c r="G131" s="10"/>
+      <c r="H131" s="11"/>
+      <c r="I131" s="10"/>
+      <c r="J131" s="11"/>
+    </row>
+    <row r="132" spans="3:10">
+      <c r="C132" s="6"/>
+      <c r="D132" s="6"/>
+      <c r="E132" s="6"/>
+      <c r="F132" s="7"/>
+      <c r="G132" s="10"/>
+      <c r="H132" s="11"/>
+      <c r="I132" s="10"/>
+      <c r="J132" s="11"/>
+    </row>
+    <row r="133" spans="3:10">
+      <c r="C133" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="D133" s="6"/>
+      <c r="E133" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F133" s="7"/>
+      <c r="G133" s="10"/>
+      <c r="H133" s="11"/>
+      <c r="I133" s="10"/>
+      <c r="J133" s="11"/>
+    </row>
+    <row r="134" spans="3:10">
+      <c r="C134" s="6"/>
+      <c r="D134" s="6"/>
+      <c r="E134" s="6"/>
+      <c r="F134" s="7"/>
+      <c r="G134" s="10"/>
+      <c r="H134" s="11"/>
+      <c r="I134" s="10"/>
+      <c r="J134" s="11"/>
+    </row>
+    <row r="135" spans="3:10">
+      <c r="C135" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" s="6"/>
+      <c r="E135" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F135" s="7"/>
+      <c r="G135" s="10"/>
+      <c r="H135" s="11"/>
+      <c r="I135" s="10"/>
+      <c r="J135" s="11"/>
+    </row>
+    <row r="136" spans="3:10">
+      <c r="C136" s="6"/>
+      <c r="D136" s="6"/>
+      <c r="E136" s="6"/>
+      <c r="F136" s="7"/>
+      <c r="G136" s="10"/>
+      <c r="H136" s="11"/>
+      <c r="I136" s="10"/>
+      <c r="J136" s="11"/>
+    </row>
+    <row r="137" spans="3:10">
+      <c r="C137" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="D121" s="3"/>
-      <c r="E121" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F121" s="5"/>
-      <c r="G121" s="3"/>
-      <c r="H121" s="3"/>
-      <c r="I121" s="9"/>
-      <c r="J121" s="10"/>
-    </row>
-    <row r="122" spans="3:10">
-      <c r="C122" s="3"/>
-      <c r="D122" s="3"/>
-      <c r="E122" s="3"/>
-      <c r="F122" s="5"/>
-      <c r="G122" s="3"/>
-      <c r="H122" s="3"/>
-      <c r="I122" s="9"/>
-      <c r="J122" s="10"/>
-    </row>
-    <row r="123" spans="3:10">
-      <c r="C123" s="3" t="s">
+      <c r="D137" s="6"/>
+      <c r="E137" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F137" s="7"/>
+      <c r="G137" s="10"/>
+      <c r="H137" s="11"/>
+      <c r="I137" s="10"/>
+      <c r="J137" s="11"/>
+    </row>
+    <row r="138" spans="3:10">
+      <c r="C138" s="6"/>
+      <c r="D138" s="6"/>
+      <c r="E138" s="6"/>
+      <c r="F138" s="7"/>
+      <c r="G138" s="10"/>
+      <c r="H138" s="11"/>
+      <c r="I138" s="10"/>
+      <c r="J138" s="11"/>
+    </row>
+    <row r="139" spans="3:10">
+      <c r="C139" s="12" t="s">
         <v>26</v>
       </c>
-      <c r="D123" s="3"/>
-      <c r="E123" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F123" s="5"/>
-      <c r="G123" s="3"/>
-      <c r="H123" s="3"/>
-      <c r="I123" s="9"/>
-      <c r="J123" s="10"/>
-    </row>
-    <row r="124" spans="3:10">
-      <c r="C124" s="3"/>
-      <c r="D124" s="3"/>
-      <c r="E124" s="3"/>
-      <c r="F124" s="5"/>
-      <c r="G124" s="3"/>
-      <c r="H124" s="3"/>
-      <c r="I124" s="9"/>
-      <c r="J124" s="10"/>
-    </row>
-    <row r="125" spans="3:10">
-      <c r="C125" s="3" t="s">
+      <c r="D139" s="12"/>
+      <c r="E139" s="6" t="s">
+        <v>15</v>
+      </c>
+      <c r="F139" s="7"/>
+      <c r="G139" s="10"/>
+      <c r="H139" s="11"/>
+      <c r="I139" s="10"/>
+      <c r="J139" s="11"/>
+    </row>
+    <row r="140" spans="3:10">
+      <c r="C140" s="12"/>
+      <c r="D140" s="12"/>
+      <c r="E140" s="6"/>
+      <c r="F140" s="7"/>
+      <c r="G140" s="13"/>
+      <c r="H140" s="14"/>
+      <c r="I140" s="13"/>
+      <c r="J140" s="14"/>
+    </row>
+    <row r="141" spans="3:10">
+      <c r="C141" s="12" t="s">
         <v>27</v>
       </c>
-      <c r="D125" s="3"/>
-      <c r="E125" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F125" s="5"/>
-      <c r="G125" s="3"/>
-      <c r="H125" s="3"/>
-      <c r="I125" s="9"/>
-      <c r="J125" s="10"/>
-    </row>
-    <row r="126" spans="3:10">
-      <c r="C126" s="3"/>
-      <c r="D126" s="3"/>
-      <c r="E126" s="3"/>
-      <c r="F126" s="5"/>
-      <c r="G126" s="3"/>
-      <c r="H126" s="3"/>
-      <c r="I126" s="9"/>
-      <c r="J126" s="10"/>
-    </row>
-    <row r="127" spans="3:10">
-      <c r="C127" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="D127" s="3"/>
-      <c r="E127" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F127" s="5"/>
-      <c r="G127" s="3"/>
-      <c r="H127" s="3"/>
-      <c r="I127" s="9"/>
-      <c r="J127" s="10"/>
-    </row>
-    <row r="128" spans="3:10">
-      <c r="C128" s="3"/>
-      <c r="D128" s="3"/>
-      <c r="E128" s="3"/>
-      <c r="F128" s="5"/>
-      <c r="G128" s="3"/>
-      <c r="H128" s="3"/>
-      <c r="I128" s="9"/>
-      <c r="J128" s="10"/>
-    </row>
-    <row r="129" spans="3:10">
-      <c r="C129" s="3" t="s">
+      <c r="D141" s="12"/>
+      <c r="E141" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="D129" s="3"/>
-      <c r="E129" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F129" s="5"/>
-      <c r="G129" s="3"/>
-      <c r="H129" s="3"/>
-      <c r="I129" s="9"/>
-      <c r="J129" s="10"/>
-    </row>
-    <row r="130" spans="3:10">
-      <c r="C130" s="3"/>
-      <c r="D130" s="3"/>
-      <c r="E130" s="3"/>
-      <c r="F130" s="5"/>
-      <c r="G130" s="3"/>
-      <c r="H130" s="3"/>
-      <c r="I130" s="9"/>
-      <c r="J130" s="10"/>
-    </row>
-    <row r="131" spans="3:10">
-      <c r="C131" s="3" t="s">
+      <c r="F141" s="7"/>
+      <c r="G141" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="D131" s="3"/>
-      <c r="E131" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F131" s="5"/>
-      <c r="G131" s="3"/>
-      <c r="H131" s="3"/>
-      <c r="I131" s="9"/>
-      <c r="J131" s="10"/>
-    </row>
-    <row r="132" spans="3:10">
-      <c r="C132" s="3"/>
-      <c r="D132" s="3"/>
-      <c r="E132" s="3"/>
-      <c r="F132" s="5"/>
-      <c r="G132" s="3"/>
-      <c r="H132" s="3"/>
-      <c r="I132" s="9"/>
-      <c r="J132" s="10"/>
-    </row>
-    <row r="133" spans="3:10">
-      <c r="C133" s="4" t="s">
+      <c r="H141" s="6"/>
+      <c r="I141" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="D133" s="4"/>
-      <c r="E133" s="3" t="s">
-        <v>19</v>
-      </c>
-      <c r="F133" s="5"/>
-      <c r="G133" s="3"/>
-      <c r="H133" s="3"/>
-      <c r="I133" s="9"/>
-      <c r="J133" s="10"/>
-    </row>
-    <row r="134" spans="3:10">
-      <c r="C134" s="4"/>
-      <c r="D134" s="4"/>
-      <c r="E134" s="3"/>
-      <c r="F134" s="5"/>
-      <c r="G134" s="3"/>
-      <c r="H134" s="3"/>
-      <c r="I134" s="11"/>
-      <c r="J134" s="12"/>
+      <c r="J141" s="6"/>
+    </row>
+    <row r="142" spans="3:10">
+      <c r="C142" s="12"/>
+      <c r="D142" s="12"/>
+      <c r="E142" s="6"/>
+      <c r="F142" s="7"/>
+      <c r="G142" s="6"/>
+      <c r="H142" s="6"/>
+      <c r="I142" s="6"/>
+      <c r="J142" s="6"/>
+    </row>
+    <row r="143" spans="3:14">
+      <c r="C143" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="D143" s="16"/>
+      <c r="E143" s="8" t="s">
+        <v>32</v>
+      </c>
+      <c r="F143" s="17"/>
+      <c r="G143" s="15" t="s">
+        <v>33</v>
+      </c>
+      <c r="H143" s="9"/>
+      <c r="I143" s="15" t="s">
+        <v>34</v>
+      </c>
+      <c r="J143" s="9"/>
+      <c r="K143" s="26" t="s">
+        <v>35</v>
+      </c>
+      <c r="L143" s="26"/>
+      <c r="M143" s="26"/>
+      <c r="N143" s="26"/>
+    </row>
+    <row r="144" spans="3:14">
+      <c r="C144" s="18"/>
+      <c r="D144" s="19"/>
+      <c r="E144" s="10"/>
+      <c r="F144" s="20"/>
+      <c r="G144" s="10"/>
+      <c r="H144" s="11"/>
+      <c r="I144" s="10"/>
+      <c r="J144" s="11"/>
+      <c r="K144" s="26"/>
+      <c r="L144" s="26"/>
+      <c r="M144" s="26"/>
+      <c r="N144" s="26"/>
+    </row>
+    <row r="145" spans="3:14">
+      <c r="C145" s="18"/>
+      <c r="D145" s="19"/>
+      <c r="E145" s="10"/>
+      <c r="F145" s="20"/>
+      <c r="G145" s="10"/>
+      <c r="H145" s="11"/>
+      <c r="I145" s="10"/>
+      <c r="J145" s="11"/>
+      <c r="K145" s="26"/>
+      <c r="L145" s="26"/>
+      <c r="M145" s="26"/>
+      <c r="N145" s="26"/>
+    </row>
+    <row r="146" spans="3:14">
+      <c r="C146" s="21"/>
+      <c r="D146" s="22"/>
+      <c r="E146" s="13"/>
+      <c r="F146" s="23"/>
+      <c r="G146" s="13"/>
+      <c r="H146" s="14"/>
+      <c r="I146" s="13"/>
+      <c r="J146" s="14"/>
+      <c r="K146" s="26"/>
+      <c r="L146" s="26"/>
+      <c r="M146" s="26"/>
+      <c r="N146" s="26"/>
+    </row>
+    <row r="150" ht="18.75" spans="1:3">
+      <c r="A150" s="24"/>
+      <c r="C150" s="25" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="151" spans="3:10">
+      <c r="C151" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="D151" s="4"/>
+      <c r="E151" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="F151" s="5"/>
+      <c r="G151" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H151" s="4"/>
+      <c r="I151" s="27"/>
+      <c r="J151" s="27"/>
+    </row>
+    <row r="152" spans="3:10">
+      <c r="C152" s="4"/>
+      <c r="D152" s="4"/>
+      <c r="E152" s="5"/>
+      <c r="F152" s="5"/>
+      <c r="G152" s="4"/>
+      <c r="H152" s="4"/>
+      <c r="I152" s="27"/>
+      <c r="J152" s="27"/>
+    </row>
+    <row r="153" spans="3:10">
+      <c r="C153" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="D153" s="9"/>
+      <c r="E153" s="8" t="s">
+        <v>39</v>
+      </c>
+      <c r="F153" s="17"/>
+      <c r="G153" s="8" t="s">
+        <v>40</v>
+      </c>
+      <c r="H153" s="9"/>
+      <c r="I153" s="27"/>
+      <c r="J153" s="27"/>
+    </row>
+    <row r="154" spans="3:10">
+      <c r="C154" s="13"/>
+      <c r="D154" s="14"/>
+      <c r="E154" s="10"/>
+      <c r="F154" s="20"/>
+      <c r="G154" s="10"/>
+      <c r="H154" s="11"/>
+      <c r="I154" s="27"/>
+      <c r="J154" s="27"/>
+    </row>
+    <row r="155" spans="3:10">
+      <c r="C155" s="6" t="s">
+        <v>41</v>
+      </c>
+      <c r="D155" s="6"/>
+      <c r="E155" s="10"/>
+      <c r="F155" s="20"/>
+      <c r="G155" s="10"/>
+      <c r="H155" s="11"/>
+      <c r="I155" s="27"/>
+      <c r="J155" s="27"/>
+    </row>
+    <row r="156" spans="3:10">
+      <c r="C156" s="6"/>
+      <c r="D156" s="6"/>
+      <c r="E156" s="10"/>
+      <c r="F156" s="20"/>
+      <c r="G156" s="10"/>
+      <c r="H156" s="11"/>
+      <c r="I156" s="27"/>
+      <c r="J156" s="27"/>
+    </row>
+    <row r="157" spans="3:10">
+      <c r="C157" s="6" t="s">
+        <v>42</v>
+      </c>
+      <c r="D157" s="6"/>
+      <c r="E157" s="10"/>
+      <c r="F157" s="20"/>
+      <c r="G157" s="10"/>
+      <c r="H157" s="11"/>
+      <c r="I157" s="27"/>
+      <c r="J157" s="27"/>
+    </row>
+    <row r="158" spans="3:10">
+      <c r="C158" s="6"/>
+      <c r="D158" s="6"/>
+      <c r="E158" s="10"/>
+      <c r="F158" s="20"/>
+      <c r="G158" s="10"/>
+      <c r="H158" s="11"/>
+      <c r="I158" s="27"/>
+      <c r="J158" s="27"/>
+    </row>
+    <row r="159" spans="3:10">
+      <c r="C159" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="D159" s="9"/>
+      <c r="E159" s="10"/>
+      <c r="F159" s="20"/>
+      <c r="G159" s="10"/>
+      <c r="H159" s="11"/>
+      <c r="I159" s="27"/>
+      <c r="J159" s="27"/>
+    </row>
+    <row r="160" spans="3:10">
+      <c r="C160" s="13"/>
+      <c r="D160" s="14"/>
+      <c r="E160" s="10"/>
+      <c r="F160" s="20"/>
+      <c r="G160" s="10"/>
+      <c r="H160" s="11"/>
+      <c r="I160" s="27"/>
+      <c r="J160" s="27"/>
+    </row>
+    <row r="161" spans="3:10">
+      <c r="C161" s="8" t="s">
+        <v>44</v>
+      </c>
+      <c r="D161" s="9"/>
+      <c r="E161" s="10"/>
+      <c r="F161" s="20"/>
+      <c r="G161" s="10"/>
+      <c r="H161" s="11"/>
+      <c r="I161" s="27"/>
+      <c r="J161" s="27"/>
+    </row>
+    <row r="162" spans="3:10">
+      <c r="C162" s="13"/>
+      <c r="D162" s="14"/>
+      <c r="E162" s="10"/>
+      <c r="F162" s="20"/>
+      <c r="G162" s="10"/>
+      <c r="H162" s="11"/>
+      <c r="I162" s="27"/>
+      <c r="J162" s="27"/>
+    </row>
+    <row r="163" spans="3:10">
+      <c r="C163" s="15" t="s">
+        <v>45</v>
+      </c>
+      <c r="D163" s="9"/>
+      <c r="E163" s="10"/>
+      <c r="F163" s="20"/>
+      <c r="G163" s="10"/>
+      <c r="H163" s="11"/>
+      <c r="I163" s="27"/>
+      <c r="J163" s="27"/>
+    </row>
+    <row r="164" spans="3:10">
+      <c r="C164" s="13"/>
+      <c r="D164" s="14"/>
+      <c r="E164" s="10"/>
+      <c r="F164" s="20"/>
+      <c r="G164" s="10"/>
+      <c r="H164" s="11"/>
+      <c r="I164" s="27"/>
+      <c r="J164" s="27"/>
+    </row>
+    <row r="165" spans="3:10">
+      <c r="C165" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="D165" s="9"/>
+      <c r="E165" s="10"/>
+      <c r="F165" s="20"/>
+      <c r="G165" s="10"/>
+      <c r="H165" s="11"/>
+      <c r="I165" s="27"/>
+      <c r="J165" s="27"/>
+    </row>
+    <row r="166" spans="3:10">
+      <c r="C166" s="13"/>
+      <c r="D166" s="14"/>
+      <c r="E166" s="10"/>
+      <c r="F166" s="20"/>
+      <c r="G166" s="10"/>
+      <c r="H166" s="11"/>
+      <c r="I166" s="27"/>
+      <c r="J166" s="27"/>
+    </row>
+    <row r="167" spans="3:10">
+      <c r="C167" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="D167" s="9"/>
+      <c r="E167" s="10"/>
+      <c r="F167" s="20"/>
+      <c r="G167" s="10"/>
+      <c r="H167" s="11"/>
+      <c r="I167" s="27"/>
+      <c r="J167" s="27"/>
+    </row>
+    <row r="168" spans="3:10">
+      <c r="C168" s="13"/>
+      <c r="D168" s="14"/>
+      <c r="E168" s="10"/>
+      <c r="F168" s="20"/>
+      <c r="G168" s="10"/>
+      <c r="H168" s="11"/>
+      <c r="I168" s="27"/>
+      <c r="J168" s="27"/>
+    </row>
+    <row r="169" spans="3:10">
+      <c r="C169" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="D169" s="9"/>
+      <c r="E169" s="10"/>
+      <c r="F169" s="20"/>
+      <c r="G169" s="10"/>
+      <c r="H169" s="11"/>
+      <c r="I169" s="27"/>
+      <c r="J169" s="27"/>
+    </row>
+    <row r="170" spans="3:10">
+      <c r="C170" s="13"/>
+      <c r="D170" s="14"/>
+      <c r="E170" s="10"/>
+      <c r="F170" s="20"/>
+      <c r="G170" s="10"/>
+      <c r="H170" s="11"/>
+      <c r="I170" s="27"/>
+      <c r="J170" s="27"/>
+    </row>
+    <row r="171" spans="3:10">
+      <c r="C171" s="8" t="s">
+        <v>49</v>
+      </c>
+      <c r="D171" s="9"/>
+      <c r="E171" s="10"/>
+      <c r="F171" s="20"/>
+      <c r="G171" s="10"/>
+      <c r="H171" s="11"/>
+      <c r="I171" s="27"/>
+      <c r="J171" s="27"/>
+    </row>
+    <row r="172" spans="3:10">
+      <c r="C172" s="13"/>
+      <c r="D172" s="14"/>
+      <c r="E172" s="10"/>
+      <c r="F172" s="20"/>
+      <c r="G172" s="10"/>
+      <c r="H172" s="11"/>
+      <c r="I172" s="27"/>
+      <c r="J172" s="27"/>
+    </row>
+    <row r="173" spans="3:10">
+      <c r="C173" s="8" t="s">
+        <v>50</v>
+      </c>
+      <c r="D173" s="9"/>
+      <c r="E173" s="10"/>
+      <c r="F173" s="20"/>
+      <c r="G173" s="10"/>
+      <c r="H173" s="11"/>
+      <c r="I173" s="27"/>
+      <c r="J173" s="27"/>
+    </row>
+    <row r="174" spans="3:10">
+      <c r="C174" s="13"/>
+      <c r="D174" s="14"/>
+      <c r="E174" s="10"/>
+      <c r="F174" s="20"/>
+      <c r="G174" s="10"/>
+      <c r="H174" s="11"/>
+      <c r="I174" s="27"/>
+      <c r="J174" s="27"/>
+    </row>
+    <row r="175" spans="3:10">
+      <c r="C175" s="8" t="s">
+        <v>51</v>
+      </c>
+      <c r="D175" s="9"/>
+      <c r="E175" s="10"/>
+      <c r="F175" s="20"/>
+      <c r="G175" s="10"/>
+      <c r="H175" s="11"/>
+      <c r="I175" s="27"/>
+      <c r="J175" s="27"/>
+    </row>
+    <row r="176" spans="3:10">
+      <c r="C176" s="13"/>
+      <c r="D176" s="14"/>
+      <c r="E176" s="13"/>
+      <c r="F176" s="23"/>
+      <c r="G176" s="13"/>
+      <c r="H176" s="14"/>
+      <c r="I176" s="27"/>
+      <c r="J176" s="27"/>
+    </row>
+    <row r="177" spans="3:10">
+      <c r="C177" s="8" t="s">
+        <v>52</v>
+      </c>
+      <c r="D177" s="9"/>
+      <c r="E177" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F177" s="17"/>
+      <c r="G177" s="6" t="s">
+        <v>54</v>
+      </c>
+      <c r="H177" s="6"/>
+      <c r="I177" s="27"/>
+      <c r="J177" s="27"/>
+    </row>
+    <row r="178" spans="3:10">
+      <c r="C178" s="13"/>
+      <c r="D178" s="14"/>
+      <c r="E178" s="13"/>
+      <c r="F178" s="23"/>
+      <c r="G178" s="6"/>
+      <c r="H178" s="6"/>
+      <c r="I178" s="27"/>
+      <c r="J178" s="27"/>
+    </row>
+    <row r="179" spans="3:10">
+      <c r="C179" s="8" t="s">
+        <v>55</v>
+      </c>
+      <c r="D179" s="9"/>
+      <c r="E179" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F179" s="17"/>
+      <c r="G179" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H179" s="6"/>
+      <c r="I179" s="27"/>
+      <c r="J179" s="27"/>
+    </row>
+    <row r="180" spans="3:10">
+      <c r="C180" s="13"/>
+      <c r="D180" s="14"/>
+      <c r="E180" s="13"/>
+      <c r="F180" s="23"/>
+      <c r="G180" s="6"/>
+      <c r="H180" s="6"/>
+      <c r="I180" s="27"/>
+      <c r="J180" s="27"/>
+    </row>
+    <row r="181" spans="3:10">
+      <c r="C181" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D181" s="9"/>
+      <c r="E181" s="8" t="s">
+        <v>53</v>
+      </c>
+      <c r="F181" s="17"/>
+      <c r="G181" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="H181" s="6"/>
+      <c r="I181" s="27"/>
+      <c r="J181" s="27"/>
+    </row>
+    <row r="182" spans="3:10">
+      <c r="C182" s="13"/>
+      <c r="D182" s="14"/>
+      <c r="E182" s="13"/>
+      <c r="F182" s="23"/>
+      <c r="G182" s="6"/>
+      <c r="H182" s="6"/>
+      <c r="I182" s="27"/>
+      <c r="J182" s="27"/>
+    </row>
+    <row r="183" spans="3:10">
+      <c r="C183" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="D183" s="9"/>
+      <c r="E183" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="F183" s="17"/>
+      <c r="G183" s="6" t="s">
+        <v>62</v>
+      </c>
+      <c r="H183" s="6"/>
+      <c r="I183" s="27"/>
+      <c r="J183" s="27"/>
+    </row>
+    <row r="184" spans="3:10">
+      <c r="C184" s="13"/>
+      <c r="D184" s="14"/>
+      <c r="E184" s="13"/>
+      <c r="F184" s="23"/>
+      <c r="G184" s="6"/>
+      <c r="H184" s="6"/>
+      <c r="I184" s="27"/>
+      <c r="J184" s="27"/>
+    </row>
+    <row r="185" spans="3:10">
+      <c r="C185" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D185" s="9"/>
+      <c r="E185" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="F185" s="17"/>
+      <c r="G185" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="H185" s="6"/>
+      <c r="I185" s="27"/>
+      <c r="J185" s="27"/>
+    </row>
+    <row r="186" spans="3:10">
+      <c r="C186" s="13"/>
+      <c r="D186" s="14"/>
+      <c r="E186" s="13"/>
+      <c r="F186" s="23"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="27"/>
+      <c r="J186" s="27"/>
+    </row>
+    <row r="187" spans="3:10">
+      <c r="C187" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="D187" s="9"/>
+      <c r="E187" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="F187" s="17"/>
+      <c r="G187" s="6" t="s">
+        <v>68</v>
+      </c>
+      <c r="H187" s="6"/>
+      <c r="I187" s="27"/>
+      <c r="J187" s="27"/>
+    </row>
+    <row r="188" spans="3:10">
+      <c r="C188" s="13"/>
+      <c r="D188" s="14"/>
+      <c r="E188" s="13"/>
+      <c r="F188" s="23"/>
+      <c r="G188" s="6"/>
+      <c r="H188" s="6"/>
+      <c r="I188" s="27"/>
+      <c r="J188" s="27"/>
+    </row>
+    <row r="189" spans="3:10">
+      <c r="C189" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D189" s="9"/>
+      <c r="E189" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="F189" s="17"/>
+      <c r="G189" s="6" t="s">
+        <v>71</v>
+      </c>
+      <c r="H189" s="6"/>
+      <c r="I189" s="27"/>
+      <c r="J189" s="27"/>
+    </row>
+    <row r="190" spans="3:10">
+      <c r="C190" s="13"/>
+      <c r="D190" s="14"/>
+      <c r="E190" s="13"/>
+      <c r="F190" s="23"/>
+      <c r="G190" s="6"/>
+      <c r="H190" s="6"/>
+      <c r="I190" s="27"/>
+      <c r="J190" s="27"/>
+    </row>
+    <row r="191" spans="3:10">
+      <c r="C191" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="D191" s="9"/>
+      <c r="E191" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="F191" s="17"/>
+      <c r="G191" s="6" t="s">
+        <v>74</v>
+      </c>
+      <c r="H191" s="6"/>
+      <c r="I191" s="27"/>
+      <c r="J191" s="27"/>
+    </row>
+    <row r="192" spans="3:10">
+      <c r="C192" s="13"/>
+      <c r="D192" s="14"/>
+      <c r="E192" s="13"/>
+      <c r="F192" s="23"/>
+      <c r="G192" s="6"/>
+      <c r="H192" s="6"/>
+      <c r="I192" s="27"/>
+      <c r="J192" s="27"/>
+    </row>
+    <row r="193" spans="3:10">
+      <c r="C193" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="D193" s="9"/>
+      <c r="E193" s="8" t="s">
+        <v>57</v>
+      </c>
+      <c r="F193" s="17"/>
+      <c r="G193" s="8" t="s">
+        <v>76</v>
+      </c>
+      <c r="H193" s="9"/>
+      <c r="I193" s="27"/>
+      <c r="J193" s="27"/>
+    </row>
+    <row r="194" spans="3:10">
+      <c r="C194" s="13"/>
+      <c r="D194" s="14"/>
+      <c r="E194" s="13"/>
+      <c r="F194" s="23"/>
+      <c r="G194" s="10"/>
+      <c r="H194" s="11"/>
+      <c r="I194" s="27"/>
+      <c r="J194" s="27"/>
+    </row>
+    <row r="195" spans="3:10">
+      <c r="C195" s="6" t="s">
+        <v>77</v>
+      </c>
+      <c r="D195" s="6"/>
+      <c r="E195" s="6" t="s">
+        <v>78</v>
+      </c>
+      <c r="F195" s="7"/>
+      <c r="G195" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="H195" s="9"/>
+      <c r="I195" s="27"/>
+      <c r="J195" s="27"/>
+    </row>
+    <row r="196" spans="3:10">
+      <c r="C196" s="6"/>
+      <c r="D196" s="6"/>
+      <c r="E196" s="6"/>
+      <c r="F196" s="7"/>
+      <c r="G196" s="13"/>
+      <c r="H196" s="14"/>
+      <c r="I196" s="27"/>
+      <c r="J196" s="27"/>
+    </row>
+    <row r="197" spans="3:10">
+      <c r="C197" s="6" t="s">
+        <v>80</v>
+      </c>
+      <c r="D197" s="6"/>
+      <c r="E197" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="F197" s="7"/>
+      <c r="G197" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="H197" s="9"/>
+      <c r="I197" s="27"/>
+      <c r="J197" s="27"/>
+    </row>
+    <row r="198" spans="3:10">
+      <c r="C198" s="6"/>
+      <c r="D198" s="6"/>
+      <c r="E198" s="6"/>
+      <c r="F198" s="7"/>
+      <c r="G198" s="13"/>
+      <c r="H198" s="14"/>
+      <c r="I198" s="27"/>
+      <c r="J198" s="27"/>
+    </row>
+    <row r="199" spans="3:10">
+      <c r="C199" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="D199" s="9"/>
+      <c r="E199" s="8" t="s">
+        <v>56</v>
+      </c>
+      <c r="F199" s="17"/>
+      <c r="G199" s="6" t="s">
+        <v>57</v>
+      </c>
+      <c r="H199" s="6"/>
+      <c r="I199" s="27"/>
+      <c r="J199" s="27"/>
+    </row>
+    <row r="200" spans="3:10">
+      <c r="C200" s="13"/>
+      <c r="D200" s="14"/>
+      <c r="E200" s="13"/>
+      <c r="F200" s="23"/>
+      <c r="G200" s="6"/>
+      <c r="H200" s="6"/>
+      <c r="I200" s="27"/>
+      <c r="J200" s="27"/>
+    </row>
+    <row r="201" spans="3:10">
+      <c r="C201" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D201" s="9"/>
+      <c r="E201" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F201" s="17"/>
+      <c r="G201" s="6" t="s">
+        <v>86</v>
+      </c>
+      <c r="H201" s="6"/>
+      <c r="I201" s="27"/>
+      <c r="J201" s="27"/>
+    </row>
+    <row r="202" spans="3:10">
+      <c r="C202" s="13"/>
+      <c r="D202" s="14"/>
+      <c r="E202" s="13"/>
+      <c r="F202" s="23"/>
+      <c r="G202" s="6"/>
+      <c r="H202" s="6"/>
+      <c r="I202" s="27"/>
+      <c r="J202" s="27"/>
+    </row>
+    <row r="203" spans="3:10">
+      <c r="C203" s="8" t="s">
+        <v>87</v>
+      </c>
+      <c r="D203" s="9"/>
+      <c r="E203" s="8" t="s">
+        <v>88</v>
+      </c>
+      <c r="F203" s="17"/>
+      <c r="G203" s="8" t="s">
+        <v>89</v>
+      </c>
+      <c r="H203" s="9"/>
+      <c r="I203" s="27"/>
+      <c r="J203" s="27"/>
+    </row>
+    <row r="204" spans="3:10">
+      <c r="C204" s="13"/>
+      <c r="D204" s="14"/>
+      <c r="E204" s="10"/>
+      <c r="F204" s="20"/>
+      <c r="G204" s="10"/>
+      <c r="H204" s="11"/>
+      <c r="I204" s="27"/>
+      <c r="J204" s="27"/>
+    </row>
+    <row r="205" spans="3:10">
+      <c r="C205" s="8" t="s">
+        <v>90</v>
+      </c>
+      <c r="D205" s="9"/>
+      <c r="E205" s="10"/>
+      <c r="F205" s="20"/>
+      <c r="G205" s="10"/>
+      <c r="H205" s="11"/>
+      <c r="I205" s="27"/>
+      <c r="J205" s="27"/>
+    </row>
+    <row r="206" spans="3:10">
+      <c r="C206" s="13"/>
+      <c r="D206" s="14"/>
+      <c r="E206" s="10"/>
+      <c r="F206" s="20"/>
+      <c r="G206" s="10"/>
+      <c r="H206" s="11"/>
+      <c r="I206" s="27"/>
+      <c r="J206" s="27"/>
+    </row>
+    <row r="207" spans="3:10">
+      <c r="C207" s="8" t="s">
+        <v>91</v>
+      </c>
+      <c r="D207" s="9"/>
+      <c r="E207" s="10"/>
+      <c r="F207" s="20"/>
+      <c r="G207" s="10"/>
+      <c r="H207" s="11"/>
+      <c r="I207" s="27"/>
+      <c r="J207" s="27"/>
+    </row>
+    <row r="208" spans="3:10">
+      <c r="C208" s="13"/>
+      <c r="D208" s="14"/>
+      <c r="E208" s="10"/>
+      <c r="F208" s="20"/>
+      <c r="G208" s="10"/>
+      <c r="H208" s="11"/>
+      <c r="I208" s="27"/>
+      <c r="J208" s="27"/>
+    </row>
+    <row r="209" spans="3:10">
+      <c r="C209" s="8" t="s">
+        <v>92</v>
+      </c>
+      <c r="D209" s="9"/>
+      <c r="E209" s="10"/>
+      <c r="F209" s="20"/>
+      <c r="G209" s="10"/>
+      <c r="H209" s="11"/>
+      <c r="I209" s="27"/>
+      <c r="J209" s="27"/>
+    </row>
+    <row r="210" spans="3:10">
+      <c r="C210" s="13"/>
+      <c r="D210" s="14"/>
+      <c r="E210" s="10"/>
+      <c r="F210" s="20"/>
+      <c r="G210" s="10"/>
+      <c r="H210" s="11"/>
+      <c r="I210" s="27"/>
+      <c r="J210" s="27"/>
+    </row>
+    <row r="211" spans="3:10">
+      <c r="C211" s="8" t="s">
+        <v>93</v>
+      </c>
+      <c r="D211" s="9"/>
+      <c r="E211" s="10"/>
+      <c r="F211" s="20"/>
+      <c r="G211" s="10"/>
+      <c r="H211" s="11"/>
+      <c r="I211" s="27"/>
+      <c r="J211" s="27"/>
+    </row>
+    <row r="212" spans="3:10">
+      <c r="C212" s="13"/>
+      <c r="D212" s="14"/>
+      <c r="E212" s="10"/>
+      <c r="F212" s="20"/>
+      <c r="G212" s="10"/>
+      <c r="H212" s="11"/>
+      <c r="I212" s="27"/>
+      <c r="J212" s="27"/>
+    </row>
+    <row r="213" spans="3:10">
+      <c r="C213" s="8" t="s">
+        <v>94</v>
+      </c>
+      <c r="D213" s="9"/>
+      <c r="E213" s="10"/>
+      <c r="F213" s="20"/>
+      <c r="G213" s="10"/>
+      <c r="H213" s="11"/>
+      <c r="I213" s="27"/>
+      <c r="J213" s="27"/>
+    </row>
+    <row r="214" spans="3:10">
+      <c r="C214" s="13"/>
+      <c r="D214" s="14"/>
+      <c r="E214" s="10"/>
+      <c r="F214" s="20"/>
+      <c r="G214" s="10"/>
+      <c r="H214" s="11"/>
+      <c r="I214" s="27"/>
+      <c r="J214" s="27"/>
+    </row>
+    <row r="215" spans="3:10">
+      <c r="C215" s="8" t="s">
+        <v>95</v>
+      </c>
+      <c r="D215" s="9"/>
+      <c r="E215" s="10"/>
+      <c r="F215" s="20"/>
+      <c r="G215" s="10"/>
+      <c r="H215" s="11"/>
+      <c r="I215" s="27"/>
+      <c r="J215" s="27"/>
+    </row>
+    <row r="216" spans="3:10">
+      <c r="C216" s="13"/>
+      <c r="D216" s="14"/>
+      <c r="E216" s="10"/>
+      <c r="F216" s="20"/>
+      <c r="G216" s="10"/>
+      <c r="H216" s="11"/>
+      <c r="I216" s="27"/>
+      <c r="J216" s="27"/>
+    </row>
+    <row r="217" spans="3:10">
+      <c r="C217" s="8" t="s">
+        <v>96</v>
+      </c>
+      <c r="D217" s="9"/>
+      <c r="E217" s="10"/>
+      <c r="F217" s="20"/>
+      <c r="G217" s="10"/>
+      <c r="H217" s="11"/>
+      <c r="I217" s="27"/>
+      <c r="J217" s="27"/>
+    </row>
+    <row r="218" spans="3:10">
+      <c r="C218" s="13"/>
+      <c r="D218" s="14"/>
+      <c r="E218" s="10"/>
+      <c r="F218" s="20"/>
+      <c r="G218" s="10"/>
+      <c r="H218" s="11"/>
+      <c r="I218" s="27"/>
+      <c r="J218" s="27"/>
+    </row>
+    <row r="219" spans="3:10">
+      <c r="C219" s="8" t="s">
+        <v>97</v>
+      </c>
+      <c r="D219" s="9"/>
+      <c r="E219" s="10"/>
+      <c r="F219" s="20"/>
+      <c r="G219" s="10"/>
+      <c r="H219" s="11"/>
+      <c r="I219" s="27"/>
+      <c r="J219" s="27"/>
+    </row>
+    <row r="220" spans="3:10">
+      <c r="C220" s="13"/>
+      <c r="D220" s="14"/>
+      <c r="E220" s="10"/>
+      <c r="F220" s="20"/>
+      <c r="G220" s="10"/>
+      <c r="H220" s="11"/>
+      <c r="I220" s="27"/>
+      <c r="J220" s="27"/>
+    </row>
+    <row r="221" spans="3:10">
+      <c r="C221" s="8" t="s">
+        <v>98</v>
+      </c>
+      <c r="D221" s="9"/>
+      <c r="E221" s="10"/>
+      <c r="F221" s="20"/>
+      <c r="G221" s="10"/>
+      <c r="H221" s="11"/>
+      <c r="I221" s="27"/>
+      <c r="J221" s="27"/>
+    </row>
+    <row r="222" spans="3:10">
+      <c r="C222" s="13"/>
+      <c r="D222" s="14"/>
+      <c r="E222" s="13"/>
+      <c r="F222" s="23"/>
+      <c r="G222" s="13"/>
+      <c r="H222" s="14"/>
+      <c r="I222" s="27"/>
+      <c r="J222" s="27"/>
+    </row>
+    <row r="223" spans="3:10">
+      <c r="C223" s="8" t="s">
+        <v>99</v>
+      </c>
+      <c r="D223" s="9"/>
+      <c r="E223" s="8" t="s">
+        <v>100</v>
+      </c>
+      <c r="F223" s="17"/>
+      <c r="G223" s="8" t="s">
+        <v>101</v>
+      </c>
+      <c r="H223" s="9"/>
+      <c r="I223" s="27"/>
+      <c r="J223" s="27"/>
+    </row>
+    <row r="224" spans="3:10">
+      <c r="C224" s="13"/>
+      <c r="D224" s="14"/>
+      <c r="E224" s="10"/>
+      <c r="F224" s="20"/>
+      <c r="G224" s="10"/>
+      <c r="H224" s="11"/>
+      <c r="I224" s="27"/>
+      <c r="J224" s="27"/>
+    </row>
+    <row r="225" spans="3:10">
+      <c r="C225" s="8" t="s">
+        <v>102</v>
+      </c>
+      <c r="D225" s="9"/>
+      <c r="E225" s="10"/>
+      <c r="F225" s="20"/>
+      <c r="G225" s="10"/>
+      <c r="H225" s="11"/>
+      <c r="I225" s="27"/>
+      <c r="J225" s="27"/>
+    </row>
+    <row r="226" spans="3:10">
+      <c r="C226" s="13"/>
+      <c r="D226" s="14"/>
+      <c r="E226" s="10"/>
+      <c r="F226" s="20"/>
+      <c r="G226" s="10"/>
+      <c r="H226" s="11"/>
+      <c r="I226" s="27"/>
+      <c r="J226" s="27"/>
+    </row>
+    <row r="227" spans="3:10">
+      <c r="C227" s="8" t="s">
+        <v>103</v>
+      </c>
+      <c r="D227" s="9"/>
+      <c r="E227" s="10"/>
+      <c r="F227" s="20"/>
+      <c r="G227" s="10"/>
+      <c r="H227" s="11"/>
+      <c r="I227" s="27"/>
+      <c r="J227" s="27"/>
+    </row>
+    <row r="228" spans="3:10">
+      <c r="C228" s="13"/>
+      <c r="D228" s="14"/>
+      <c r="E228" s="10"/>
+      <c r="F228" s="20"/>
+      <c r="G228" s="10"/>
+      <c r="H228" s="11"/>
+      <c r="I228" s="27"/>
+      <c r="J228" s="27"/>
+    </row>
+    <row r="229" spans="3:10">
+      <c r="C229" s="8" t="s">
+        <v>104</v>
+      </c>
+      <c r="D229" s="9"/>
+      <c r="E229" s="10"/>
+      <c r="F229" s="20"/>
+      <c r="G229" s="10"/>
+      <c r="H229" s="11"/>
+      <c r="I229" s="27"/>
+      <c r="J229" s="27"/>
+    </row>
+    <row r="230" spans="3:10">
+      <c r="C230" s="13"/>
+      <c r="D230" s="14"/>
+      <c r="E230" s="10"/>
+      <c r="F230" s="20"/>
+      <c r="G230" s="10"/>
+      <c r="H230" s="11"/>
+      <c r="I230" s="27"/>
+      <c r="J230" s="27"/>
+    </row>
+    <row r="231" spans="3:10">
+      <c r="C231" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="D231" s="11"/>
+      <c r="E231" s="10"/>
+      <c r="F231" s="20"/>
+      <c r="G231" s="10"/>
+      <c r="H231" s="11"/>
+      <c r="I231" s="27"/>
+      <c r="J231" s="27"/>
+    </row>
+    <row r="232" spans="3:10">
+      <c r="C232" s="10"/>
+      <c r="D232" s="11"/>
+      <c r="E232" s="10"/>
+      <c r="F232" s="20"/>
+      <c r="G232" s="10"/>
+      <c r="H232" s="11"/>
+      <c r="I232" s="27"/>
+      <c r="J232" s="27"/>
+    </row>
+    <row r="233" spans="3:10">
+      <c r="C233" s="8" t="s">
+        <v>106</v>
+      </c>
+      <c r="D233" s="9"/>
+      <c r="E233" s="8" t="s">
+        <v>85</v>
+      </c>
+      <c r="F233" s="17"/>
+      <c r="G233" s="8" t="s">
+        <v>86</v>
+      </c>
+      <c r="H233" s="9"/>
+      <c r="I233" s="27"/>
+      <c r="J233" s="27"/>
+    </row>
+    <row r="234" spans="3:10">
+      <c r="C234" s="13"/>
+      <c r="D234" s="14"/>
+      <c r="E234" s="10"/>
+      <c r="F234" s="20"/>
+      <c r="G234" s="10"/>
+      <c r="H234" s="11"/>
+      <c r="I234" s="27"/>
+      <c r="J234" s="27"/>
+    </row>
+    <row r="235" spans="3:10">
+      <c r="C235" s="8" t="s">
+        <v>107</v>
+      </c>
+      <c r="D235" s="9"/>
+      <c r="E235" s="10"/>
+      <c r="F235" s="20"/>
+      <c r="G235" s="10"/>
+      <c r="H235" s="11"/>
+      <c r="I235" s="27"/>
+      <c r="J235" s="27"/>
+    </row>
+    <row r="236" spans="3:10">
+      <c r="C236" s="13"/>
+      <c r="D236" s="14"/>
+      <c r="E236" s="10"/>
+      <c r="F236" s="20"/>
+      <c r="G236" s="10"/>
+      <c r="H236" s="11"/>
+      <c r="I236" s="27"/>
+      <c r="J236" s="27"/>
+    </row>
+    <row r="237" spans="3:10">
+      <c r="C237" s="8" t="s">
+        <v>108</v>
+      </c>
+      <c r="D237" s="9"/>
+      <c r="E237" s="10"/>
+      <c r="F237" s="20"/>
+      <c r="G237" s="10"/>
+      <c r="H237" s="11"/>
+      <c r="I237" s="27"/>
+      <c r="J237" s="27"/>
+    </row>
+    <row r="238" spans="3:10">
+      <c r="C238" s="13"/>
+      <c r="D238" s="14"/>
+      <c r="E238" s="10"/>
+      <c r="F238" s="20"/>
+      <c r="G238" s="10"/>
+      <c r="H238" s="11"/>
+      <c r="I238" s="27"/>
+      <c r="J238" s="27"/>
+    </row>
+    <row r="239" spans="3:10">
+      <c r="C239" s="8" t="s">
+        <v>84</v>
+      </c>
+      <c r="D239" s="9"/>
+      <c r="E239" s="10"/>
+      <c r="F239" s="20"/>
+      <c r="G239" s="10"/>
+      <c r="H239" s="11"/>
+      <c r="I239" s="27"/>
+      <c r="J239" s="27"/>
+    </row>
+    <row r="240" spans="3:10">
+      <c r="C240" s="13"/>
+      <c r="D240" s="14"/>
+      <c r="E240" s="13"/>
+      <c r="F240" s="23"/>
+      <c r="G240" s="13"/>
+      <c r="H240" s="14"/>
+      <c r="I240" s="27"/>
+      <c r="J240" s="27"/>
+    </row>
+    <row r="241" spans="3:10">
+      <c r="C241" s="8" t="s">
+        <v>109</v>
+      </c>
+      <c r="D241" s="9"/>
+      <c r="E241" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F241" s="17"/>
+      <c r="G241" s="6" t="s">
+        <v>110</v>
+      </c>
+      <c r="H241" s="6"/>
+      <c r="I241" s="27"/>
+      <c r="J241" s="27"/>
+    </row>
+    <row r="242" spans="3:10">
+      <c r="C242" s="13"/>
+      <c r="D242" s="14"/>
+      <c r="E242" s="10"/>
+      <c r="F242" s="20"/>
+      <c r="G242" s="6"/>
+      <c r="H242" s="6"/>
+      <c r="I242" s="27"/>
+      <c r="J242" s="27"/>
+    </row>
+    <row r="243" spans="3:10">
+      <c r="C243" s="8" t="s">
+        <v>111</v>
+      </c>
+      <c r="D243" s="9"/>
+      <c r="E243" s="10"/>
+      <c r="F243" s="20"/>
+      <c r="G243" s="6"/>
+      <c r="H243" s="6"/>
+      <c r="I243" s="27"/>
+      <c r="J243" s="27"/>
+    </row>
+    <row r="244" spans="3:10">
+      <c r="C244" s="13"/>
+      <c r="D244" s="14"/>
+      <c r="E244" s="10"/>
+      <c r="F244" s="20"/>
+      <c r="G244" s="6"/>
+      <c r="H244" s="6"/>
+      <c r="I244" s="27"/>
+      <c r="J244" s="27"/>
+    </row>
+    <row r="245" spans="3:10">
+      <c r="C245" s="8" t="s">
+        <v>112</v>
+      </c>
+      <c r="D245" s="9"/>
+      <c r="E245" s="10"/>
+      <c r="F245" s="20"/>
+      <c r="G245" s="6"/>
+      <c r="H245" s="6"/>
+      <c r="I245" s="27"/>
+      <c r="J245" s="27"/>
+    </row>
+    <row r="246" spans="3:10">
+      <c r="C246" s="13"/>
+      <c r="D246" s="14"/>
+      <c r="E246" s="10"/>
+      <c r="F246" s="20"/>
+      <c r="G246" s="6"/>
+      <c r="H246" s="6"/>
+      <c r="I246" s="27"/>
+      <c r="J246" s="27"/>
+    </row>
+    <row r="247" spans="3:10">
+      <c r="C247" s="8" t="s">
+        <v>113</v>
+      </c>
+      <c r="D247" s="9"/>
+      <c r="E247" s="10"/>
+      <c r="F247" s="20"/>
+      <c r="G247" s="6"/>
+      <c r="H247" s="6"/>
+      <c r="I247" s="27"/>
+      <c r="J247" s="27"/>
+    </row>
+    <row r="248" spans="3:10">
+      <c r="C248" s="13"/>
+      <c r="D248" s="14"/>
+      <c r="E248" s="10"/>
+      <c r="F248" s="20"/>
+      <c r="G248" s="6"/>
+      <c r="H248" s="6"/>
+      <c r="I248" s="27"/>
+      <c r="J248" s="27"/>
+    </row>
+    <row r="249" spans="3:10">
+      <c r="C249" s="8" t="s">
+        <v>114</v>
+      </c>
+      <c r="D249" s="9"/>
+      <c r="E249" s="10"/>
+      <c r="F249" s="20"/>
+      <c r="G249" s="6"/>
+      <c r="H249" s="6"/>
+      <c r="I249" s="27"/>
+      <c r="J249" s="27"/>
+    </row>
+    <row r="250" spans="3:10">
+      <c r="C250" s="13"/>
+      <c r="D250" s="14"/>
+      <c r="E250" s="10"/>
+      <c r="F250" s="20"/>
+      <c r="G250" s="6"/>
+      <c r="H250" s="6"/>
+      <c r="I250" s="27"/>
+      <c r="J250" s="27"/>
+    </row>
+    <row r="251" spans="3:10">
+      <c r="C251" s="8" t="s">
+        <v>115</v>
+      </c>
+      <c r="D251" s="9"/>
+      <c r="E251" s="10"/>
+      <c r="F251" s="20"/>
+      <c r="G251" s="6"/>
+      <c r="H251" s="6"/>
+      <c r="I251" s="27"/>
+      <c r="J251" s="27"/>
+    </row>
+    <row r="252" spans="3:10">
+      <c r="C252" s="13"/>
+      <c r="D252" s="14"/>
+      <c r="E252" s="10"/>
+      <c r="F252" s="20"/>
+      <c r="G252" s="6"/>
+      <c r="H252" s="6"/>
+      <c r="I252" s="27"/>
+      <c r="J252" s="27"/>
+    </row>
+    <row r="253" spans="3:10">
+      <c r="C253" s="8" t="s">
+        <v>116</v>
+      </c>
+      <c r="D253" s="9"/>
+      <c r="E253" s="10"/>
+      <c r="F253" s="20"/>
+      <c r="G253" s="6"/>
+      <c r="H253" s="6"/>
+      <c r="I253" s="27"/>
+      <c r="J253" s="27"/>
+    </row>
+    <row r="254" spans="3:10">
+      <c r="C254" s="13"/>
+      <c r="D254" s="14"/>
+      <c r="E254" s="10"/>
+      <c r="F254" s="20"/>
+      <c r="G254" s="6"/>
+      <c r="H254" s="6"/>
+      <c r="I254" s="27"/>
+      <c r="J254" s="27"/>
+    </row>
+    <row r="255" spans="3:10">
+      <c r="C255" s="8" t="s">
+        <v>117</v>
+      </c>
+      <c r="D255" s="9"/>
+      <c r="E255" s="10"/>
+      <c r="F255" s="20"/>
+      <c r="G255" s="6"/>
+      <c r="H255" s="6"/>
+      <c r="I255" s="27"/>
+      <c r="J255" s="27"/>
+    </row>
+    <row r="256" spans="3:10">
+      <c r="C256" s="13"/>
+      <c r="D256" s="14"/>
+      <c r="E256" s="10"/>
+      <c r="F256" s="20"/>
+      <c r="G256" s="6"/>
+      <c r="H256" s="6"/>
+      <c r="I256" s="27"/>
+      <c r="J256" s="27"/>
+    </row>
+    <row r="257" spans="3:10">
+      <c r="C257" s="8" t="s">
+        <v>118</v>
+      </c>
+      <c r="D257" s="9"/>
+      <c r="E257" s="10"/>
+      <c r="F257" s="20"/>
+      <c r="G257" s="6"/>
+      <c r="H257" s="6"/>
+      <c r="I257" s="27"/>
+      <c r="J257" s="27"/>
+    </row>
+    <row r="258" spans="3:10">
+      <c r="C258" s="13"/>
+      <c r="D258" s="14"/>
+      <c r="E258" s="10"/>
+      <c r="F258" s="20"/>
+      <c r="G258" s="6"/>
+      <c r="H258" s="6"/>
+      <c r="I258" s="27"/>
+      <c r="J258" s="27"/>
+    </row>
+    <row r="259" spans="3:10">
+      <c r="C259" s="6" t="s">
+        <v>119</v>
+      </c>
+      <c r="D259" s="6"/>
+      <c r="E259" s="10"/>
+      <c r="F259" s="20"/>
+      <c r="G259" s="6"/>
+      <c r="H259" s="6"/>
+      <c r="I259" s="27"/>
+      <c r="J259" s="27"/>
+    </row>
+    <row r="260" spans="3:10">
+      <c r="C260" s="6"/>
+      <c r="D260" s="6"/>
+      <c r="E260" s="10"/>
+      <c r="F260" s="20"/>
+      <c r="G260" s="6"/>
+      <c r="H260" s="6"/>
+      <c r="I260" s="27"/>
+      <c r="J260" s="27"/>
+    </row>
+    <row r="261" spans="3:10">
+      <c r="C261" s="6" t="s">
+        <v>120</v>
+      </c>
+      <c r="D261" s="6"/>
+      <c r="E261" s="10"/>
+      <c r="F261" s="20"/>
+      <c r="G261" s="6"/>
+      <c r="H261" s="6"/>
+      <c r="I261" s="27"/>
+      <c r="J261" s="27"/>
+    </row>
+    <row r="262" spans="3:10">
+      <c r="C262" s="6"/>
+      <c r="D262" s="6"/>
+      <c r="E262" s="10"/>
+      <c r="F262" s="20"/>
+      <c r="G262" s="6"/>
+      <c r="H262" s="6"/>
+      <c r="I262" s="27"/>
+      <c r="J262" s="27"/>
+    </row>
+    <row r="263" spans="3:10">
+      <c r="C263" s="6" t="s">
+        <v>121</v>
+      </c>
+      <c r="D263" s="6"/>
+      <c r="E263" s="10"/>
+      <c r="F263" s="20"/>
+      <c r="G263" s="6"/>
+      <c r="H263" s="6"/>
+      <c r="I263" s="27"/>
+      <c r="J263" s="27"/>
+    </row>
+    <row r="264" spans="3:10">
+      <c r="C264" s="6"/>
+      <c r="D264" s="6"/>
+      <c r="E264" s="10"/>
+      <c r="F264" s="20"/>
+      <c r="G264" s="6"/>
+      <c r="H264" s="6"/>
+      <c r="I264" s="27"/>
+      <c r="J264" s="27"/>
+    </row>
+    <row r="265" spans="3:10">
+      <c r="C265" s="6" t="s">
+        <v>122</v>
+      </c>
+      <c r="D265" s="6"/>
+      <c r="E265" s="10"/>
+      <c r="F265" s="20"/>
+      <c r="G265" s="6"/>
+      <c r="H265" s="6"/>
+      <c r="I265" s="27"/>
+      <c r="J265" s="27"/>
+    </row>
+    <row r="266" spans="3:10">
+      <c r="C266" s="6"/>
+      <c r="D266" s="6"/>
+      <c r="E266" s="10"/>
+      <c r="F266" s="20"/>
+      <c r="G266" s="6"/>
+      <c r="H266" s="6"/>
+      <c r="I266" s="27"/>
+      <c r="J266" s="27"/>
+    </row>
+    <row r="267" spans="3:10">
+      <c r="C267" s="6" t="s">
+        <v>123</v>
+      </c>
+      <c r="D267" s="6"/>
+      <c r="E267" s="10"/>
+      <c r="F267" s="20"/>
+      <c r="G267" s="6"/>
+      <c r="H267" s="6"/>
+      <c r="I267" s="27"/>
+      <c r="J267" s="27"/>
+    </row>
+    <row r="268" spans="3:10">
+      <c r="C268" s="6"/>
+      <c r="D268" s="6"/>
+      <c r="E268" s="10"/>
+      <c r="F268" s="20"/>
+      <c r="G268" s="6"/>
+      <c r="H268" s="6"/>
+      <c r="I268" s="27"/>
+      <c r="J268" s="27"/>
+    </row>
+    <row r="269" spans="3:10">
+      <c r="C269" s="6" t="s">
+        <v>124</v>
+      </c>
+      <c r="D269" s="6"/>
+      <c r="E269" s="10"/>
+      <c r="F269" s="20"/>
+      <c r="G269" s="6"/>
+      <c r="H269" s="6"/>
+      <c r="I269" s="27"/>
+      <c r="J269" s="27"/>
+    </row>
+    <row r="270" spans="3:10">
+      <c r="C270" s="6"/>
+      <c r="D270" s="6"/>
+      <c r="E270" s="10"/>
+      <c r="F270" s="20"/>
+      <c r="G270" s="6"/>
+      <c r="H270" s="6"/>
+      <c r="I270" s="27"/>
+      <c r="J270" s="27"/>
+    </row>
+    <row r="271" spans="3:10">
+      <c r="C271" s="6" t="s">
+        <v>125</v>
+      </c>
+      <c r="D271" s="6"/>
+      <c r="E271" s="10"/>
+      <c r="F271" s="20"/>
+      <c r="G271" s="6"/>
+      <c r="H271" s="6"/>
+      <c r="I271" s="27"/>
+      <c r="J271" s="27"/>
+    </row>
+    <row r="272" spans="3:10">
+      <c r="C272" s="6"/>
+      <c r="D272" s="6"/>
+      <c r="E272" s="10"/>
+      <c r="F272" s="20"/>
+      <c r="G272" s="6"/>
+      <c r="H272" s="6"/>
+      <c r="I272" s="27"/>
+      <c r="J272" s="27"/>
+    </row>
+    <row r="273" spans="3:10">
+      <c r="C273" s="6" t="s">
+        <v>126</v>
+      </c>
+      <c r="D273" s="6"/>
+      <c r="E273" s="10"/>
+      <c r="F273" s="20"/>
+      <c r="G273" s="6"/>
+      <c r="H273" s="6"/>
+      <c r="I273" s="27"/>
+      <c r="J273" s="27"/>
+    </row>
+    <row r="274" spans="3:10">
+      <c r="C274" s="6"/>
+      <c r="D274" s="6"/>
+      <c r="E274" s="10"/>
+      <c r="F274" s="20"/>
+      <c r="G274" s="6"/>
+      <c r="H274" s="6"/>
+      <c r="I274" s="27"/>
+      <c r="J274" s="27"/>
+    </row>
+    <row r="275" spans="3:10">
+      <c r="C275" s="6" t="s">
+        <v>127</v>
+      </c>
+      <c r="D275" s="6"/>
+      <c r="E275" s="10"/>
+      <c r="F275" s="20"/>
+      <c r="G275" s="6"/>
+      <c r="H275" s="6"/>
+      <c r="I275" s="27"/>
+      <c r="J275" s="27"/>
+    </row>
+    <row r="276" spans="3:10">
+      <c r="C276" s="6"/>
+      <c r="D276" s="6"/>
+      <c r="E276" s="10"/>
+      <c r="F276" s="20"/>
+      <c r="G276" s="6"/>
+      <c r="H276" s="6"/>
+      <c r="I276" s="27"/>
+      <c r="J276" s="27"/>
+    </row>
+    <row r="277" spans="3:10">
+      <c r="C277" s="6" t="s">
+        <v>128</v>
+      </c>
+      <c r="D277" s="6"/>
+      <c r="E277" s="10"/>
+      <c r="F277" s="20"/>
+      <c r="G277" s="6"/>
+      <c r="H277" s="6"/>
+      <c r="I277" s="27"/>
+      <c r="J277" s="27"/>
+    </row>
+    <row r="278" spans="3:10">
+      <c r="C278" s="6"/>
+      <c r="D278" s="6"/>
+      <c r="E278" s="10"/>
+      <c r="F278" s="20"/>
+      <c r="G278" s="6"/>
+      <c r="H278" s="6"/>
+      <c r="I278" s="27"/>
+      <c r="J278" s="27"/>
+    </row>
+    <row r="279" spans="3:10">
+      <c r="C279" s="6" t="s">
+        <v>129</v>
+      </c>
+      <c r="D279" s="6"/>
+      <c r="E279" s="10"/>
+      <c r="F279" s="20"/>
+      <c r="G279" s="6"/>
+      <c r="H279" s="6"/>
+      <c r="I279" s="27"/>
+      <c r="J279" s="27"/>
+    </row>
+    <row r="280" spans="3:10">
+      <c r="C280" s="6"/>
+      <c r="D280" s="6"/>
+      <c r="E280" s="10"/>
+      <c r="F280" s="20"/>
+      <c r="G280" s="6"/>
+      <c r="H280" s="6"/>
+      <c r="I280" s="27"/>
+      <c r="J280" s="27"/>
+    </row>
+    <row r="281" spans="3:10">
+      <c r="C281" s="6" t="s">
+        <v>130</v>
+      </c>
+      <c r="D281" s="6"/>
+      <c r="E281" s="10"/>
+      <c r="F281" s="20"/>
+      <c r="G281" s="6"/>
+      <c r="H281" s="6"/>
+      <c r="I281" s="27"/>
+      <c r="J281" s="27"/>
+    </row>
+    <row r="282" spans="3:10">
+      <c r="C282" s="6"/>
+      <c r="D282" s="6"/>
+      <c r="E282" s="10"/>
+      <c r="F282" s="20"/>
+      <c r="G282" s="6"/>
+      <c r="H282" s="6"/>
+      <c r="I282" s="27"/>
+      <c r="J282" s="27"/>
+    </row>
+    <row r="283" spans="3:10">
+      <c r="C283" s="6" t="s">
+        <v>131</v>
+      </c>
+      <c r="D283" s="6"/>
+      <c r="E283" s="10"/>
+      <c r="F283" s="20"/>
+      <c r="G283" s="6"/>
+      <c r="H283" s="6"/>
+      <c r="I283" s="27"/>
+      <c r="J283" s="27"/>
+    </row>
+    <row r="284" spans="3:10">
+      <c r="C284" s="6"/>
+      <c r="D284" s="6"/>
+      <c r="E284" s="10"/>
+      <c r="F284" s="20"/>
+      <c r="G284" s="6"/>
+      <c r="H284" s="6"/>
+      <c r="I284" s="27"/>
+      <c r="J284" s="27"/>
+    </row>
+    <row r="285" spans="3:10">
+      <c r="C285" s="12" t="s">
+        <v>132</v>
+      </c>
+      <c r="D285" s="12"/>
+      <c r="E285" s="10"/>
+      <c r="F285" s="20"/>
+      <c r="G285" s="6"/>
+      <c r="H285" s="6"/>
+      <c r="I285" s="27"/>
+      <c r="J285" s="27"/>
+    </row>
+    <row r="286" spans="3:10">
+      <c r="C286" s="12"/>
+      <c r="D286" s="12"/>
+      <c r="E286" s="10"/>
+      <c r="F286" s="20"/>
+      <c r="G286" s="6"/>
+      <c r="H286" s="6"/>
+      <c r="I286" s="27"/>
+      <c r="J286" s="27"/>
+    </row>
+    <row r="287" spans="3:8">
+      <c r="C287" s="12" t="s">
+        <v>133</v>
+      </c>
+      <c r="D287" s="12"/>
+      <c r="E287" s="10"/>
+      <c r="F287" s="20"/>
+      <c r="G287" s="6"/>
+      <c r="H287" s="6"/>
+    </row>
+    <row r="288" spans="3:8">
+      <c r="C288" s="12"/>
+      <c r="D288" s="12"/>
+      <c r="E288" s="10"/>
+      <c r="F288" s="20"/>
+      <c r="G288" s="6"/>
+      <c r="H288" s="6"/>
+    </row>
+    <row r="289" spans="3:8">
+      <c r="C289" s="12" t="s">
+        <v>134</v>
+      </c>
+      <c r="D289" s="12"/>
+      <c r="E289" s="10"/>
+      <c r="F289" s="20"/>
+      <c r="G289" s="6"/>
+      <c r="H289" s="6"/>
+    </row>
+    <row r="290" spans="3:8">
+      <c r="C290" s="12"/>
+      <c r="D290" s="12"/>
+      <c r="E290" s="10"/>
+      <c r="F290" s="20"/>
+      <c r="G290" s="6"/>
+      <c r="H290" s="6"/>
+    </row>
+    <row r="291" spans="3:8">
+      <c r="C291" s="12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D291" s="12"/>
+      <c r="E291" s="10"/>
+      <c r="F291" s="20"/>
+      <c r="G291" s="6"/>
+      <c r="H291" s="6"/>
+    </row>
+    <row r="292" spans="3:8">
+      <c r="C292" s="12"/>
+      <c r="D292" s="12"/>
+      <c r="E292" s="10"/>
+      <c r="F292" s="20"/>
+      <c r="G292" s="6"/>
+      <c r="H292" s="6"/>
+    </row>
+    <row r="293" spans="3:8">
+      <c r="C293" s="12" t="s">
+        <v>136</v>
+      </c>
+      <c r="D293" s="12"/>
+      <c r="E293" s="10"/>
+      <c r="F293" s="20"/>
+      <c r="G293" s="6"/>
+      <c r="H293" s="6"/>
+    </row>
+    <row r="294" spans="3:8">
+      <c r="C294" s="12"/>
+      <c r="D294" s="12"/>
+      <c r="E294" s="10"/>
+      <c r="F294" s="20"/>
+      <c r="G294" s="6"/>
+      <c r="H294" s="6"/>
+    </row>
+    <row r="295" spans="3:8">
+      <c r="C295" s="12" t="s">
+        <v>137</v>
+      </c>
+      <c r="D295" s="12"/>
+      <c r="E295" s="10"/>
+      <c r="F295" s="20"/>
+      <c r="G295" s="6"/>
+      <c r="H295" s="6"/>
+    </row>
+    <row r="296" spans="3:8">
+      <c r="C296" s="12"/>
+      <c r="D296" s="12"/>
+      <c r="E296" s="10"/>
+      <c r="F296" s="20"/>
+      <c r="G296" s="6"/>
+      <c r="H296" s="6"/>
+    </row>
+    <row r="297" spans="3:8">
+      <c r="C297" s="12" t="s">
+        <v>138</v>
+      </c>
+      <c r="D297" s="12"/>
+      <c r="E297" s="10"/>
+      <c r="F297" s="20"/>
+      <c r="G297" s="6"/>
+      <c r="H297" s="6"/>
+    </row>
+    <row r="298" spans="3:8">
+      <c r="C298" s="12"/>
+      <c r="D298" s="12"/>
+      <c r="E298" s="10"/>
+      <c r="F298" s="20"/>
+      <c r="G298" s="6"/>
+      <c r="H298" s="6"/>
+    </row>
+    <row r="299" spans="3:8">
+      <c r="C299" s="12" t="s">
+        <v>139</v>
+      </c>
+      <c r="D299" s="12"/>
+      <c r="E299" s="10"/>
+      <c r="F299" s="20"/>
+      <c r="G299" s="6"/>
+      <c r="H299" s="6"/>
+    </row>
+    <row r="300" spans="3:8">
+      <c r="C300" s="12"/>
+      <c r="D300" s="12"/>
+      <c r="E300" s="10"/>
+      <c r="F300" s="20"/>
+      <c r="G300" s="6"/>
+      <c r="H300" s="6"/>
+    </row>
+    <row r="301" spans="3:8">
+      <c r="C301" s="12" t="s">
+        <v>140</v>
+      </c>
+      <c r="D301" s="12"/>
+      <c r="E301" s="10"/>
+      <c r="F301" s="20"/>
+      <c r="G301" s="6"/>
+      <c r="H301" s="6"/>
+    </row>
+    <row r="302" spans="3:8">
+      <c r="C302" s="12"/>
+      <c r="D302" s="12"/>
+      <c r="E302" s="10"/>
+      <c r="F302" s="20"/>
+      <c r="G302" s="6"/>
+      <c r="H302" s="6"/>
+    </row>
+    <row r="303" spans="3:8">
+      <c r="C303" s="12" t="s">
+        <v>141</v>
+      </c>
+      <c r="D303" s="12"/>
+      <c r="E303" s="10"/>
+      <c r="F303" s="20"/>
+      <c r="G303" s="6"/>
+      <c r="H303" s="6"/>
+    </row>
+    <row r="304" spans="3:8">
+      <c r="C304" s="12"/>
+      <c r="D304" s="12"/>
+      <c r="E304" s="10"/>
+      <c r="F304" s="20"/>
+      <c r="G304" s="6"/>
+      <c r="H304" s="6"/>
+    </row>
+    <row r="305" spans="3:8">
+      <c r="C305" s="12" t="s">
+        <v>142</v>
+      </c>
+      <c r="D305" s="12"/>
+      <c r="E305" s="10"/>
+      <c r="F305" s="20"/>
+      <c r="G305" s="6"/>
+      <c r="H305" s="6"/>
+    </row>
+    <row r="306" spans="3:8">
+      <c r="C306" s="12"/>
+      <c r="D306" s="12"/>
+      <c r="E306" s="13"/>
+      <c r="F306" s="23"/>
+      <c r="G306" s="6"/>
+      <c r="H306" s="6"/>
     </row>
   </sheetData>
-  <mergeCells count="36">
-    <mergeCell ref="C103:D104"/>
-    <mergeCell ref="E103:F104"/>
-    <mergeCell ref="G103:H104"/>
-    <mergeCell ref="I103:J104"/>
-    <mergeCell ref="C105:D106"/>
-    <mergeCell ref="E105:F106"/>
-    <mergeCell ref="G105:H134"/>
-    <mergeCell ref="I105:J134"/>
-    <mergeCell ref="C107:D108"/>
-    <mergeCell ref="E107:F108"/>
-    <mergeCell ref="C109:D110"/>
-    <mergeCell ref="E109:F110"/>
-    <mergeCell ref="C111:D112"/>
-    <mergeCell ref="E111:F112"/>
-    <mergeCell ref="C113:D114"/>
-    <mergeCell ref="E113:F114"/>
+  <mergeCells count="159">
+    <mergeCell ref="C127:D128"/>
+    <mergeCell ref="E127:F128"/>
+    <mergeCell ref="C129:D130"/>
+    <mergeCell ref="E129:F130"/>
+    <mergeCell ref="C131:D132"/>
+    <mergeCell ref="E131:F132"/>
+    <mergeCell ref="C121:D122"/>
+    <mergeCell ref="E121:F122"/>
+    <mergeCell ref="C123:D124"/>
+    <mergeCell ref="E123:F124"/>
+    <mergeCell ref="C125:D126"/>
+    <mergeCell ref="E125:F126"/>
     <mergeCell ref="C115:D116"/>
     <mergeCell ref="E115:F116"/>
     <mergeCell ref="C117:D118"/>
     <mergeCell ref="E117:F118"/>
     <mergeCell ref="C119:D120"/>
     <mergeCell ref="E119:F120"/>
-    <mergeCell ref="C121:D122"/>
-    <mergeCell ref="E121:F122"/>
-    <mergeCell ref="C123:D124"/>
-    <mergeCell ref="E123:F124"/>
-    <mergeCell ref="C125:D126"/>
-    <mergeCell ref="E125:F126"/>
-    <mergeCell ref="C127:D128"/>
-    <mergeCell ref="E127:F128"/>
-    <mergeCell ref="C129:D130"/>
-    <mergeCell ref="E129:F130"/>
-    <mergeCell ref="C131:D132"/>
-    <mergeCell ref="E131:F132"/>
+    <mergeCell ref="C113:D114"/>
+    <mergeCell ref="E113:F114"/>
+    <mergeCell ref="G113:H114"/>
+    <mergeCell ref="I113:J114"/>
+    <mergeCell ref="C195:D196"/>
+    <mergeCell ref="E195:F196"/>
+    <mergeCell ref="G195:H196"/>
+    <mergeCell ref="C197:D198"/>
+    <mergeCell ref="E197:F198"/>
+    <mergeCell ref="G197:H198"/>
+    <mergeCell ref="C199:D200"/>
+    <mergeCell ref="E199:F200"/>
+    <mergeCell ref="G199:H200"/>
+    <mergeCell ref="C201:D202"/>
+    <mergeCell ref="E201:F202"/>
+    <mergeCell ref="G201:H202"/>
+    <mergeCell ref="C171:D172"/>
+    <mergeCell ref="C173:D174"/>
+    <mergeCell ref="C203:D204"/>
+    <mergeCell ref="C205:D206"/>
+    <mergeCell ref="C207:D208"/>
+    <mergeCell ref="C209:D210"/>
+    <mergeCell ref="C211:D212"/>
+    <mergeCell ref="C213:D214"/>
+    <mergeCell ref="C215:D216"/>
+    <mergeCell ref="C217:D218"/>
+    <mergeCell ref="C219:D220"/>
+    <mergeCell ref="C221:D222"/>
+    <mergeCell ref="C175:D176"/>
+    <mergeCell ref="C177:D178"/>
+    <mergeCell ref="E177:F178"/>
+    <mergeCell ref="G177:H178"/>
+    <mergeCell ref="C179:D180"/>
+    <mergeCell ref="E179:F180"/>
+    <mergeCell ref="G179:H180"/>
+    <mergeCell ref="C181:D182"/>
+    <mergeCell ref="E181:F182"/>
+    <mergeCell ref="G181:H182"/>
+    <mergeCell ref="C183:D184"/>
+    <mergeCell ref="E183:F184"/>
+    <mergeCell ref="G183:H184"/>
+    <mergeCell ref="C185:D186"/>
+    <mergeCell ref="E185:F186"/>
+    <mergeCell ref="G185:H186"/>
+    <mergeCell ref="C187:D188"/>
+    <mergeCell ref="E187:F188"/>
+    <mergeCell ref="G187:H188"/>
+    <mergeCell ref="C189:D190"/>
+    <mergeCell ref="E189:F190"/>
+    <mergeCell ref="G189:H190"/>
+    <mergeCell ref="C191:D192"/>
+    <mergeCell ref="E191:F192"/>
+    <mergeCell ref="G191:H192"/>
+    <mergeCell ref="C193:D194"/>
+    <mergeCell ref="E193:F194"/>
+    <mergeCell ref="G193:H194"/>
+    <mergeCell ref="C223:D224"/>
+    <mergeCell ref="C225:D226"/>
+    <mergeCell ref="C227:D228"/>
+    <mergeCell ref="C229:D230"/>
+    <mergeCell ref="C231:D232"/>
+    <mergeCell ref="C233:D234"/>
+    <mergeCell ref="C235:D236"/>
+    <mergeCell ref="C237:D238"/>
+    <mergeCell ref="C239:D240"/>
+    <mergeCell ref="C241:D242"/>
+    <mergeCell ref="C243:D244"/>
+    <mergeCell ref="C245:D246"/>
+    <mergeCell ref="C247:D248"/>
+    <mergeCell ref="C249:D250"/>
+    <mergeCell ref="C251:D252"/>
+    <mergeCell ref="C253:D254"/>
+    <mergeCell ref="C255:D256"/>
+    <mergeCell ref="C257:D258"/>
+    <mergeCell ref="C259:D260"/>
+    <mergeCell ref="C261:D262"/>
+    <mergeCell ref="C151:D152"/>
+    <mergeCell ref="E151:F152"/>
+    <mergeCell ref="G151:H152"/>
+    <mergeCell ref="I151:J152"/>
+    <mergeCell ref="C153:D154"/>
+    <mergeCell ref="C155:D156"/>
+    <mergeCell ref="C157:D158"/>
+    <mergeCell ref="C159:D160"/>
+    <mergeCell ref="C161:D162"/>
+    <mergeCell ref="C163:D164"/>
+    <mergeCell ref="C165:D166"/>
+    <mergeCell ref="C167:D168"/>
+    <mergeCell ref="C169:D170"/>
+    <mergeCell ref="C263:D264"/>
+    <mergeCell ref="C265:D266"/>
+    <mergeCell ref="C267:D268"/>
+    <mergeCell ref="C269:D270"/>
+    <mergeCell ref="C271:D272"/>
+    <mergeCell ref="C273:D274"/>
+    <mergeCell ref="C275:D276"/>
+    <mergeCell ref="C277:D278"/>
+    <mergeCell ref="C279:D280"/>
+    <mergeCell ref="C281:D282"/>
+    <mergeCell ref="C283:D284"/>
+    <mergeCell ref="C285:D286"/>
+    <mergeCell ref="C287:D288"/>
+    <mergeCell ref="C289:D290"/>
+    <mergeCell ref="C291:D292"/>
+    <mergeCell ref="C141:D142"/>
+    <mergeCell ref="E141:F142"/>
+    <mergeCell ref="G141:H142"/>
+    <mergeCell ref="I141:J142"/>
+    <mergeCell ref="C137:D138"/>
+    <mergeCell ref="E137:F138"/>
+    <mergeCell ref="C139:D140"/>
+    <mergeCell ref="E139:F140"/>
     <mergeCell ref="C133:D134"/>
     <mergeCell ref="E133:F134"/>
+    <mergeCell ref="C135:D136"/>
+    <mergeCell ref="E135:F136"/>
+    <mergeCell ref="C293:D294"/>
+    <mergeCell ref="C295:D296"/>
+    <mergeCell ref="C297:D298"/>
+    <mergeCell ref="C299:D300"/>
+    <mergeCell ref="C301:D302"/>
+    <mergeCell ref="E153:F176"/>
+    <mergeCell ref="G153:H176"/>
+    <mergeCell ref="I153:J286"/>
+    <mergeCell ref="E203:F222"/>
+    <mergeCell ref="G203:H222"/>
+    <mergeCell ref="E233:F240"/>
+    <mergeCell ref="G233:H240"/>
+    <mergeCell ref="E223:F232"/>
+    <mergeCell ref="G223:H232"/>
+    <mergeCell ref="G115:H140"/>
+    <mergeCell ref="I115:J140"/>
+    <mergeCell ref="C143:D146"/>
+    <mergeCell ref="E143:F146"/>
+    <mergeCell ref="G143:H146"/>
+    <mergeCell ref="I143:J146"/>
+    <mergeCell ref="K143:N146"/>
+    <mergeCell ref="C303:D304"/>
+    <mergeCell ref="C305:D306"/>
+    <mergeCell ref="E241:F306"/>
+    <mergeCell ref="G241:H306"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
